--- a/analise.xlsx
+++ b/analise.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="19020" windowHeight="11895" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="19020" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="2" r:id="rId1"/>
     <sheet name="Dados" sheetId="1" r:id="rId2"/>
-    <sheet name="Análise" sheetId="3" r:id="rId3"/>
+    <sheet name="Critérios" sheetId="4" r:id="rId3"/>
+    <sheet name="Análise" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="471">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1282,9 +1283,6 @@
   </si>
   <si>
     <t>JPSA4</t>
-  </si>
-  <si>
-    <t>Limite para entrega de resultados</t>
   </si>
   <si>
     <t>Trimestre 1</t>
@@ -1439,6 +1437,37 @@
   <si>
     <t xml:space="preserve">COTAÇÃO ATUAL
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar apenas as informações de campos em </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azul</t>
+    </r>
+  </si>
+  <si>
+    <t>Datas limite para entrega de resultados</t>
+  </si>
+  <si>
+    <t>Limites para critérios diversos</t>
+  </si>
+  <si>
+    <t>Valor mínimo do Ativo Total para empresa de grande porte (R$1000)</t>
+  </si>
+  <si>
+    <t>Critérios para seleção de ações</t>
+  </si>
+  <si>
+    <t>Esta aba registra os critérios usados pelas diversas estratégias. Nenhum valor deve ser editado</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,6 +1510,22 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1545,7 +1590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1595,6 +1640,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,291 +1659,231 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>7.3666999999999998</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>47166109000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
         <stp>ABEV3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AW13" s="1"/>
+        <tr r="AB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.75270000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BL13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>48939678000</v>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>1230385000</v>
         <stp/>
         <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.56559999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
         <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AC13" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CS13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>1.4810000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC13" s="1"/>
+      </tp>
       <tp t="s">
         <v>Bancos</v>
         <stp/>
@@ -1907,6 +1894,26 @@
         <stp/>
         <tr r="C12" s="1"/>
       </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB13" s="1"/>
+      </tp>
       <tp t="s">
         <v>Cervejas e Refrigerantes</v>
         <stp/>
@@ -1918,232 +1925,253 @@
         <tr r="C13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>1788230000</v>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>90469486000</v>
         <stp/>
         <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
+        <stp>ABEV3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
+        <tr r="AN13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AC11" s="1"/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
         <stp>AALR3</stp>
         <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-      <tp>
-        <v>90469486000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>1.1146</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY11" s="1"/>
-      </tp>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>13848978000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>3284332000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1801999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE11" s="1"/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+      <tp>
+        <v>792.43</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="DP11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF11" s="1"/>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC11" s="1"/>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD11" s="1"/>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA11" s="1"/>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB11" s="1"/>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
@@ -2160,31 +2188,104 @@
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG11" s="1"/>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH11" s="1"/>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp/>
         <tr r="BI11" s="1"/>
       </tp>
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp>
+        <v>2159</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp>
         <v>2500739000</v>
         <stp/>
@@ -2195,18 +2296,8 @@
         <stp>NP</stp>
         <tr r="P12" s="1"/>
       </tp>
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp>
         <v>2.1700000000000001E-2</v>
         <stp/>
@@ -2218,6 +2309,26 @@
         <tr r="AY13" s="1"/>
       </tp>
       <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
         <v>8.7499999999999994E-2</v>
         <stp/>
         <stp>DividendYield</stp>
@@ -2228,24 +2339,34 @@
         <tr r="AZ12" s="1"/>
       </tp>
       <tp>
-        <v>7.1400000000000005E-2</v>
+        <v>7.5700000000000003E-2</v>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA12" s="1"/>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC12" s="1"/>
       </tp>
       <tp>
         <v>4.02E-2</v>
@@ -2258,54 +2379,24 @@
         <tr r="BD12" s="1"/>
       </tp>
       <tp>
-        <v>0.113</v>
+        <v>7.4300000000000005E-2</v>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp/>
         <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG12" s="1"/>
       </tp>
       <tp>
         <v>5.2699999999999997E-2</v>
@@ -2332,40 +2423,60 @@
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE13" s="1"/>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF13" s="1"/>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC13" s="1"/>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD13" s="1"/>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB13" s="1"/>
       </tp>
       <tp>
         <v>3.49E-2</v>
@@ -2376,46 +2487,26 @@
         <stp>1</stp>
         <stp/>
         <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG13" s="1"/>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH13" s="1"/>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
@@ -2428,7 +2519,29 @@
         <tr r="BI13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>0.90380000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2.46E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BP13" s="1"/>
+      </tp>
       <tp>
         <v>106665000</v>
         <stp/>
@@ -2450,503 +2563,152 @@
         <tr r="P13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>15.44</v>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW12" s="1"/>
+      </tp>
+      <tp>
+        <v>24875.95</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>1817483021.2</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AV11" s="1"/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>18.7</v>
         <stp/>
         <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="DR11" s="1"/>
+        <stp>ABCB4</stp>
+        <tr r="DR12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DD12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45960000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>22.11</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>8.7425999999999995</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BU13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>3660791130.6300001</v>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>3616312421.6999998</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABCB4</stp>
@@ -2959,7 +2721,7 @@
         <tr r="BK12" s="1"/>
       </tp>
       <tp>
-        <v>347456921308.28003</v>
+        <v>351540953837.21997</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABEV3</stp>
@@ -2970,7 +2732,264 @@
         <tr r="BK13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>22.38</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1275</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.18840000000000001</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
       <tp>
         <v>2.0299999999999999E-2</v>
         <stp/>
@@ -2981,25 +3000,35 @@
         <stp>NP</stp>
         <tr r="CF11" s="1"/>
       </tp>
-      <tp>
-        <v>0.18840000000000001</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BQ11" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
       </tp>
       <tp>
         <v>22524244000</v>
@@ -3016,275 +3045,1099 @@
         <stp/>
         <stp>MargemBruta</stp>
         <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>39.1068</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>72.943700000000007</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC11" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>18.920000000000002</v>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>15.4</v>
         <stp/>
         <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="DR12" s="1"/>
+        <stp>AALR3</stp>
+        <tr r="DR11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="D21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2013</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DI11" s="1"/>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="D22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E13" s="1"/>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AV22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
+        <stp>LucroLiquido</stp>
         <stp>AALR3</stp>
         <stp>4T_2011</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DK11" s="1"/>
+        <tr r="K11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
+        <stp>LucroLiquido</stp>
         <stp>AALR3</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DL11" s="1"/>
+        <tr r="L11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>1822203756.3199999</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AV11" s="1"/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
-      </tp>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>10423848000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2014</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BX11" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2015</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BW11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>1.1011</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
         <stp>AALR3</stp>
         <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV11" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
+        <stp>LiquidezCorrente</stp>
         <stp>AALR3</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BU11" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BM11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>1.4772000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AW11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>7.4532999999999996</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AW13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>5.8099999999999999E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>2.41E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY11" s="1"/>
+      </tp>
       <tp>
         <v>418733000</v>
         <stp/>
@@ -3296,17 +4149,285 @@
         <tr r="AV16" s="1"/>
         <tr r="D12" s="1"/>
       </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DS13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW11" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="D11" s="1"/>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.65</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT11" s="1"/>
       </tp>
       <tp>
         <v>8884865000</v>
@@ -3319,2164 +4440,1076 @@
         <tr r="AV21" s="1"/>
         <tr r="D13" s="1"/>
       </tp>
+      <tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="D11" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV17" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AS12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>10423848000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BU12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>13848978000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
+        <tr r="X11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
         <stp>AALR3</stp>
         <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN11" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>43160.637793229165</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>8.6363000000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
+        <tr r="AR12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>827.19</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="DP11" s="1"/>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>3284332000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AB12" s="1"/>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>0.90380000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2132.38</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BM12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CS12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>24737.48</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BM13" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1801999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BL12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.46E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BT12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>5.74E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>47166109000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
-      <tp>
-        <v>2.4400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.56559999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.75270000000000004</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BL13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ11" s="1"/>
-      </tp>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
         <stp>AALR3</stp>
         <stp>4T_2016</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CT11" s="1"/>
+        <tr r="BV11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
+        <stp>LucroLiquidoAcao</stp>
         <stp>AALR3</stp>
         <stp>3T_2017</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bae020b582b74affb1d4443c8d81e7cc">
+        <tr r="BU11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AX11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.0f97f73be2e14eea84440824c6174395">
+      <tp>
+        <v>72.754800000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
+      </tp>
+      <tp>
+        <v>39.566499999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DS12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC11" s="1"/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DD12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>43160.638887384259</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABEV3</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BL11" s="1"/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AS11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AP13" s="1"/>
+        <tr r="CR12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.23419999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CR11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42720000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AS13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c3b2adb84f7449e6b4139d8a6a94a82c">
+      <tp>
+        <v>0.45960000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DD13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS12" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DS13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC13" s="1"/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DS11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV17" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AS12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="D21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB11" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="D22" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E13" s="1"/>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AV22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>43159.523011944446</v>
+    <main first="rtdsrv.bc867788a4164653af6b06ab108c10ea">
+      <tp>
+        <v>43160.637893067127</v>
         <stp/>
         <stp>UltimoNegocio</stp>
         <stp>ABCB4</stp>
         <tr r="DQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DS12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>43159.523607060182</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABEV3</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AS11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AS13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f01e51c3787436cb9858a7941fecff9">
-      <tp>
-        <v>43159.52078244213</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.122ab17167fe4f7db3de1de297fa6398">
-      <tp>
-        <v>0.23419999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CR11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42720000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CR13" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5770,155 +5803,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <f ca="1">NOW()</f>
-        <v>43159.52121053241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>422</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <f ca="1">NOW()</f>
+        <v>43160.636221527777</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
+      <c r="A6" s="33" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="9">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>427</v>
       </c>
-      <c r="C7">
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8" s="9">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="9">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11">
+        <f ca="1">IF($B$4 &lt; $C$13,YEAR($B$4) - 1,YEAR($B$4))</f>
+        <v>2017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(OR(B4 &lt; B13,B4 &gt;= E13),3,IF(B4 &lt; C13,4,IF(B4 &lt; D13,1,2)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12">
+        <f ca="1">IF(D11 = 4, B11, B11 - 1)</f>
+        <v>2016</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>428</v>
       </c>
-      <c r="E7">
-        <v>3</v>
+      <c r="B13" s="1">
+        <f ca="1">DATE(YEAR(B4),E10,C10)</f>
+        <v>43190</v>
+      </c>
+      <c r="C13" s="1">
+        <f ca="1">DATE(YEAR(B4),E7,C7)</f>
+        <v>43235</v>
+      </c>
+      <c r="D13" s="1">
+        <f ca="1">DATE(YEAR(B4),E8,C8)</f>
+        <v>43327</v>
+      </c>
+      <c r="E13" s="1">
+        <f ca="1">DATE(YEAR(B4),E9,C9)</f>
+        <v>43419</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14">
-        <f ca="1">IF($B$2 &lt; $C$16,YEAR($B$2) - 1,YEAR($B$2))</f>
-        <v>2017</v>
-      </c>
-      <c r="C14" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="2">
-        <f ca="1">IF(OR(B2 &lt; B16,B2 &gt;= E16),3,IF(B2 &lt; C16,4,IF(B2 &lt; D16,1,2)))</f>
-        <v>3</v>
-      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B15">
-        <f ca="1">IF(D14 = 4, B14, B14 - 1)</f>
-        <v>2016</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="A15" s="33" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B16" s="1">
-        <f ca="1">DATE(YEAR(B2),E7,C7)</f>
-        <v>43190</v>
-      </c>
-      <c r="C16" s="1">
-        <f ca="1">DATE(YEAR(B2),E4,C4)</f>
-        <v>43235</v>
-      </c>
-      <c r="D16" s="1">
-        <f ca="1">DATE(YEAR(B2),E5,C5)</f>
-        <v>43327</v>
-      </c>
-      <c r="E16" s="1">
-        <f ca="1">DATE(YEAR(B2),E6,C6)</f>
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
+      <c r="A16" s="34">
+        <v>240000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>468</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5930,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EC423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,47 +6026,47 @@
   <sheetData>
     <row r="1" spans="1:133" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A1" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:133" x14ac:dyDescent="0.25">
@@ -6017,510 +6074,510 @@
     </row>
     <row r="10" spans="1:133" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="21">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="F10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="G10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="H10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
+        <v>2014</v>
+      </c>
+      <c r="I10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
+        <v>2013</v>
+      </c>
+      <c r="J10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
+        <v>2012</v>
+      </c>
+      <c r="K10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
+        <v>2011</v>
+      </c>
+      <c r="L10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
+        <v>2010</v>
+      </c>
+      <c r="M10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
+        <v>2009</v>
+      </c>
+      <c r="N10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
+        <v>2008</v>
+      </c>
+      <c r="O10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
+        <v>2007</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q10" s="21">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="R10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="S10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="T10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
+        <v>2014</v>
+      </c>
+      <c r="U10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
+        <v>2013</v>
+      </c>
+      <c r="V10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
+        <v>2012</v>
+      </c>
+      <c r="W10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
+        <v>2011</v>
+      </c>
+      <c r="X10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
+        <v>2010</v>
+      </c>
+      <c r="Y10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
+        <v>2009</v>
+      </c>
+      <c r="Z10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
+        <v>2008</v>
+      </c>
+      <c r="AA10" s="21">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
+        <v>2007</v>
+      </c>
+      <c r="AB10" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC10" s="25">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="AD10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="AE10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="AF10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
+        <v>2014</v>
+      </c>
+      <c r="AG10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
+        <v>2013</v>
+      </c>
+      <c r="AH10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
+        <v>2012</v>
+      </c>
+      <c r="AI10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
+        <v>2011</v>
+      </c>
+      <c r="AJ10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
+        <v>2010</v>
+      </c>
+      <c r="AK10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
+        <v>2009</v>
+      </c>
+      <c r="AL10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
+        <v>2008</v>
+      </c>
+      <c r="AM10" s="25">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
+        <v>2007</v>
+      </c>
+      <c r="AN10" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="AO10" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AP10" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AQ10" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AR10" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E10" s="21">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="AS10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="F10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="AT10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="G10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="AU10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="H10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
+      <c r="AV10" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW10" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX10" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="AZ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="BA10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="BB10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
         <v>2014</v>
       </c>
-      <c r="I10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
+      <c r="BC10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
         <v>2013</v>
       </c>
-      <c r="J10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
+      <c r="BD10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
         <v>2012</v>
       </c>
-      <c r="K10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
+      <c r="BE10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
         <v>2011</v>
       </c>
-      <c r="L10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
+      <c r="BF10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
         <v>2010</v>
       </c>
-      <c r="M10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
+      <c r="BG10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
         <v>2009</v>
       </c>
-      <c r="N10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
+      <c r="BH10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
         <v>2008</v>
       </c>
-      <c r="O10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
+      <c r="BI10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
         <v>2007</v>
       </c>
-      <c r="P10" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q10" s="21">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="BJ10" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="BK10" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="BL10" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="R10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="BN10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="S10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="BO10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="T10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
+      <c r="BP10" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="BQ10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="BR10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="BS10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="BT10" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="BU10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
+        <v>2017</v>
+      </c>
+      <c r="BV10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
+        <v>2016</v>
+      </c>
+      <c r="BW10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
+        <v>2015</v>
+      </c>
+      <c r="BX10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
         <v>2014</v>
       </c>
-      <c r="U10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
+      <c r="BY10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
         <v>2013</v>
       </c>
-      <c r="V10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
+      <c r="BZ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
         <v>2012</v>
       </c>
-      <c r="W10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
+      <c r="CA10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
         <v>2011</v>
       </c>
-      <c r="X10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
+      <c r="CB10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
         <v>2010</v>
       </c>
-      <c r="Y10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
+      <c r="CC10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
         <v>2009</v>
       </c>
-      <c r="Z10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
+      <c r="CD10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
         <v>2008</v>
       </c>
-      <c r="AA10" s="21">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
+      <c r="CE10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
         <v>2007</v>
       </c>
-      <c r="AB10" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC10" s="25">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="CF10" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="CG10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="AD10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="CH10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="AE10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="CI10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="AF10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
+      <c r="CJ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
         <v>2014</v>
       </c>
-      <c r="AG10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
+      <c r="CK10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
         <v>2013</v>
       </c>
-      <c r="AH10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
+      <c r="CL10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
         <v>2012</v>
       </c>
-      <c r="AI10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
+      <c r="CM10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
         <v>2011</v>
       </c>
-      <c r="AJ10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
+      <c r="CN10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
         <v>2010</v>
       </c>
-      <c r="AK10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
+      <c r="CO10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
         <v>2009</v>
       </c>
-      <c r="AL10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
+      <c r="CP10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
         <v>2008</v>
       </c>
-      <c r="AM10" s="25">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
+      <c r="CQ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
         <v>2007</v>
       </c>
-      <c r="AN10" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="AO10" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="AP10" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="AQ10" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="AR10" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="AS10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="CR10" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="CS10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="AT10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="CT10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="AU10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="CU10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="AV10" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="AW10" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="AX10" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="AY10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="CV10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
+        <v>2014</v>
+      </c>
+      <c r="CW10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
+        <v>2013</v>
+      </c>
+      <c r="CX10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
+        <v>2012</v>
+      </c>
+      <c r="CY10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
+        <v>2011</v>
+      </c>
+      <c r="CZ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
+        <v>2010</v>
+      </c>
+      <c r="DA10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
+        <v>2009</v>
+      </c>
+      <c r="DB10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
+        <v>2008</v>
+      </c>
+      <c r="DC10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
+        <v>2007</v>
+      </c>
+      <c r="DD10" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="DE10" s="17">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="AZ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="DF10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="BA10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="DG10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="BB10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
+      <c r="DH10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
         <v>2014</v>
       </c>
-      <c r="BC10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
+      <c r="DI10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
         <v>2013</v>
       </c>
-      <c r="BD10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
+      <c r="DJ10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
         <v>2012</v>
       </c>
-      <c r="BE10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
+      <c r="DK10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
         <v>2011</v>
       </c>
-      <c r="BF10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
+      <c r="DL10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
         <v>2010</v>
       </c>
-      <c r="BG10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
+      <c r="DM10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
         <v>2009</v>
       </c>
-      <c r="BH10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
+      <c r="DN10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
         <v>2008</v>
       </c>
-      <c r="BI10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
+      <c r="DO10" s="17">
+        <f ca="1">Parâmetros!$B$11 - 10</f>
         <v>2007</v>
       </c>
-      <c r="BJ10" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="BK10" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="BL10" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="BM10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
+      <c r="DP10" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="DQ10" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="DR10" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="DS10" s="29">
+        <f ca="1">Parâmetros!$B$11</f>
         <v>2017</v>
       </c>
-      <c r="BN10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
+      <c r="DT10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 1</f>
         <v>2016</v>
       </c>
-      <c r="BO10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
+      <c r="DU10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 2</f>
         <v>2015</v>
       </c>
-      <c r="BP10" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="BQ10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="BR10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="BS10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="BT10" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="BU10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="BV10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="BW10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="BX10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
+      <c r="DV10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 3</f>
         <v>2014</v>
       </c>
-      <c r="BY10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
+      <c r="DW10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 4</f>
         <v>2013</v>
       </c>
-      <c r="BZ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
+      <c r="DX10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 5</f>
         <v>2012</v>
       </c>
-      <c r="CA10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
+      <c r="DY10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 6</f>
         <v>2011</v>
       </c>
-      <c r="CB10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
+      <c r="DZ10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 7</f>
         <v>2010</v>
       </c>
-      <c r="CC10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
+      <c r="EA10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 8</f>
         <v>2009</v>
       </c>
-      <c r="CD10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
+      <c r="EB10" s="29">
+        <f ca="1">Parâmetros!$B$11 - 9</f>
         <v>2008</v>
       </c>
-      <c r="CE10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
-        <v>2007</v>
-      </c>
-      <c r="CF10" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="CG10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="CH10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="CI10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="CJ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
-        <v>2014</v>
-      </c>
-      <c r="CK10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
-        <v>2013</v>
-      </c>
-      <c r="CL10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
-        <v>2012</v>
-      </c>
-      <c r="CM10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
-        <v>2011</v>
-      </c>
-      <c r="CN10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
-        <v>2010</v>
-      </c>
-      <c r="CO10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
-        <v>2009</v>
-      </c>
-      <c r="CP10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
-        <v>2008</v>
-      </c>
-      <c r="CQ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
-        <v>2007</v>
-      </c>
-      <c r="CR10" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="CS10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="CT10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="CU10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="CV10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
-        <v>2014</v>
-      </c>
-      <c r="CW10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
-        <v>2013</v>
-      </c>
-      <c r="CX10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
-        <v>2012</v>
-      </c>
-      <c r="CY10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
-        <v>2011</v>
-      </c>
-      <c r="CZ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
-        <v>2010</v>
-      </c>
-      <c r="DA10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
-        <v>2009</v>
-      </c>
-      <c r="DB10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
-        <v>2008</v>
-      </c>
-      <c r="DC10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
-        <v>2007</v>
-      </c>
-      <c r="DD10" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="DE10" s="17">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="DF10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="DG10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="DH10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
-        <v>2014</v>
-      </c>
-      <c r="DI10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
-        <v>2013</v>
-      </c>
-      <c r="DJ10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
-        <v>2012</v>
-      </c>
-      <c r="DK10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
-        <v>2011</v>
-      </c>
-      <c r="DL10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
-        <v>2010</v>
-      </c>
-      <c r="DM10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
-        <v>2009</v>
-      </c>
-      <c r="DN10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
-        <v>2008</v>
-      </c>
-      <c r="DO10" s="17">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
-        <v>2007</v>
-      </c>
-      <c r="DP10" s="30" t="s">
-        <v>464</v>
-      </c>
-      <c r="DQ10" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="DR10" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="DS10" s="29">
-        <f ca="1">Parâmetros!$B$14</f>
-        <v>2017</v>
-      </c>
-      <c r="DT10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 1</f>
-        <v>2016</v>
-      </c>
-      <c r="DU10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 2</f>
-        <v>2015</v>
-      </c>
-      <c r="DV10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 3</f>
-        <v>2014</v>
-      </c>
-      <c r="DW10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 4</f>
-        <v>2013</v>
-      </c>
-      <c r="DX10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 5</f>
-        <v>2012</v>
-      </c>
-      <c r="DY10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 6</f>
-        <v>2011</v>
-      </c>
-      <c r="DZ10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 7</f>
-        <v>2010</v>
-      </c>
-      <c r="EA10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 8</f>
-        <v>2009</v>
-      </c>
-      <c r="EB10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 9</f>
-        <v>2008</v>
-      </c>
       <c r="EC10" s="29">
-        <f ca="1">Parâmetros!$B$14 - 10</f>
+        <f ca="1">Parâmetros!$B$11 - 10</f>
         <v>2007</v>
       </c>
     </row>
@@ -6541,7 +6598,7 @@
         <v>24981</v>
       </c>
       <c r="E11" s="23">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A11,Parâmetros!$D$14,$E$10,"12m","cp") / 1000, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A11,Parâmetros!$D$11,$E$10,"12m","cp") / 1000, -1)</f>
         <v>-1</v>
       </c>
       <c r="F11" s="23">
@@ -6589,7 +6646,7 @@
         <v>106665</v>
       </c>
       <c r="Q11" s="23">
-        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A11,Parâmetros!$D$14,$Q$10,"12m","cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A11,Parâmetros!$D$11,$Q$10,"12m","cp") / 1000,-1)</f>
         <v>-1</v>
       </c>
       <c r="R11" s="23">
@@ -6637,7 +6694,7 @@
         <v>1230385</v>
       </c>
       <c r="AC11" s="27">
-        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A11,Parâmetros!$D$14,$AC$10,"cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A11,Parâmetros!$D$11,$AC$10,"cp") / 1000,-1)</f>
         <v>-1</v>
       </c>
       <c r="AD11" s="27">
@@ -6698,10 +6755,10 @@
       </c>
       <c r="AR11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>72.943700000000007</v>
+        <v>72.754800000000003</v>
       </c>
       <c r="AS11" s="16">
-        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$14,$AS$10,"12m","cp") / 1,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AS$10,"12m","cp") / 1,-1)</f>
         <v>-1</v>
       </c>
       <c r="AT11" s="16">
@@ -6714,18 +6771,18 @@
       </c>
       <c r="AV11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( E11 + F11 + G11) / 3),-1)</f>
-        <v>315.3147181726942</v>
+        <v>314.49784066447484</v>
       </c>
       <c r="AW11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.4810000000000001</v>
+        <v>1.4772000000000001</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A11) / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="AY11" s="16">
-        <f ca="1">IFERROR(_xll.GI.DividendYield(A11,Parâmetros!$D$14,$AY$10,"12m") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DividendYield(A11,Parâmetros!$D$11,$AY$10,"12m") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="AZ11" s="16">
@@ -6774,14 +6831,14 @@
       </c>
       <c r="BK11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1822203.7563199999</v>
+        <v>1817483.0212000001</v>
       </c>
       <c r="BL11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
         <v>0.26440000000000002</v>
       </c>
       <c r="BM11" s="16">
-        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A11,Parâmetros!$D$14,$BM$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A11,Parâmetros!$D$11,$BM$10,"cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="BN11" s="16">
@@ -6797,7 +6854,7 @@
         <v>0.24610000000000001</v>
       </c>
       <c r="BQ11" s="16">
-        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A11,Parâmetros!$D$14,$BQ$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A11,Parâmetros!$D$11,$BQ$10,"cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="BR11" s="16">
@@ -6813,7 +6870,7 @@
         <v>0.2117</v>
       </c>
       <c r="BU11" s="16">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A11,Parâmetros!$D$14,$BU$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A11,Parâmetros!$D$11,$BU$10,"12m","cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="BV11" s="16">
@@ -6909,7 +6966,7 @@
         <v>0.23419999999999999</v>
       </c>
       <c r="CS11" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A11,Parâmetros!$D$14,$CS$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A11,Parâmetros!$D$11,$CS$10,"12m","cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="CT11" s="16">
@@ -6957,7 +7014,7 @@
         <v>0.31909999999999999</v>
       </c>
       <c r="DE11" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemBruta(A11,Parâmetros!$D$14,$DE$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemBruta(A11,Parâmetros!$D$11,$DE$10,"12m","cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="DF11" s="16">
@@ -7002,7 +7059,7 @@
       </c>
       <c r="DP11" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A11) / 1, -1)</f>
-        <v>827.19</v>
+        <v>792.43</v>
       </c>
       <c r="DQ11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
@@ -7010,7 +7067,7 @@
       </c>
       <c r="DR11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>15.44</v>
+        <v>15.4</v>
       </c>
       <c r="DS11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$DS$10)) / 1,-1)</f>
@@ -7074,7 +7131,7 @@
         <v>418733</v>
       </c>
       <c r="E12" s="23">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A12,Parâmetros!$D$14,$E$10,"12m","cp") / 1000, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A12,Parâmetros!$D$11,$E$10,"12m","cp") / 1000, -1)</f>
         <v>416653</v>
       </c>
       <c r="F12" s="23">
@@ -7122,7 +7179,7 @@
         <v>2500739</v>
       </c>
       <c r="Q12" s="23">
-        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A12,Parâmetros!$D$14,$Q$10,"12m","cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A12,Parâmetros!$D$11,$Q$10,"12m","cp") / 1000,-1)</f>
         <v>2398094</v>
       </c>
       <c r="R12" s="23">
@@ -7170,7 +7227,7 @@
         <v>3284332</v>
       </c>
       <c r="AC12" s="27">
-        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A12,Parâmetros!$D$14,$AC$10,"cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A12,Parâmetros!$D$11,$AC$10,"cp") / 1000,-1)</f>
         <v>3228438</v>
       </c>
       <c r="AD12" s="27">
@@ -7231,10 +7288,10 @@
       </c>
       <c r="AR12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.7425999999999995</v>
+        <v>8.6363000000000003</v>
       </c>
       <c r="AS12" s="16">
-        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$14,$AS$10,"12m","cp") / 1,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AS$10,"12m","cp") / 1,-1)</f>
         <v>7.9195000000000002</v>
       </c>
       <c r="AT12" s="16">
@@ -7247,18 +7304,18 @@
       </c>
       <c r="AV12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( E12 + F12 + G12) / 3),-1)</f>
-        <v>9.1754823538715016</v>
+        <v>9.0640000009190214</v>
       </c>
       <c r="AW12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.1146</v>
+        <v>1.1011</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.74E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="AY12" s="16">
-        <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$14,$AY$10,"12m") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$AY$10,"12m") / 1, -1)</f>
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="AZ12" s="16">
@@ -7307,14 +7364,14 @@
       </c>
       <c r="BK12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3660791.13063</v>
+        <v>3616312.4216999998</v>
       </c>
       <c r="BL12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
         <v>1.1801999999999999</v>
       </c>
       <c r="BM12" s="16">
-        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A12,Parâmetros!$D$14,$BM$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A12,Parâmetros!$D$11,$BM$10,"cp") / 1, -1)</f>
         <v>1.2743</v>
       </c>
       <c r="BN12" s="16">
@@ -7330,7 +7387,7 @@
         <v>-1</v>
       </c>
       <c r="BQ12" s="16">
-        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A12,Parâmetros!$D$14,$BQ$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A12,Parâmetros!$D$11,$BQ$10,"cp") / 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="BR12" s="16">
@@ -7346,7 +7403,7 @@
         <v>2.1652999999999998</v>
       </c>
       <c r="BU12" s="16">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A12,Parâmetros!$D$14,$BU$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A12,Parâmetros!$D$11,$BU$10,"12m","cp") / 1, -1)</f>
         <v>2.1496</v>
       </c>
       <c r="BV12" s="16">
@@ -7442,7 +7499,7 @@
         <v>0.16739999999999999</v>
       </c>
       <c r="CS12" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A12,Parâmetros!$D$14,$CS$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A12,Parâmetros!$D$11,$CS$10,"12m","cp") / 1, -1)</f>
         <v>0.17369999999999999</v>
       </c>
       <c r="CT12" s="16">
@@ -7490,7 +7547,7 @@
         <v>0.25580000000000003</v>
       </c>
       <c r="DE12" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemBruta(A12,Parâmetros!$D$14,$DE$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemBruta(A12,Parâmetros!$D$11,$DE$10,"12m","cp") / 1, -1)</f>
         <v>0.2802</v>
       </c>
       <c r="DF12" s="16">
@@ -7535,7 +7592,7 @@
       </c>
       <c r="DP12" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A12) / 1, -1)</f>
-        <v>2132.38</v>
+        <v>2159</v>
       </c>
       <c r="DQ12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
@@ -7543,7 +7600,7 @@
       </c>
       <c r="DR12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.920000000000002</v>
+        <v>18.7</v>
       </c>
       <c r="DS12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$DS$10)) / 1,-1)</f>
@@ -7607,7 +7664,7 @@
         <v>8884865</v>
       </c>
       <c r="E13" s="23">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A13,Parâmetros!$D$14,$E$10,"12m","cp") / 1000, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquido(A13,Parâmetros!$D$11,$E$10,"12m","cp") / 1000, -1)</f>
         <v>9384888</v>
       </c>
       <c r="F13" s="23">
@@ -7655,7 +7712,7 @@
         <v>20800153</v>
       </c>
       <c r="Q13" s="23">
-        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A13,Parâmetros!$D$14,$Q$10,"12m","cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.RecLiquidaOpe(A13,Parâmetros!$D$11,$Q$10,"12m","cp") / 1000,-1)</f>
         <v>46049532</v>
       </c>
       <c r="R13" s="23">
@@ -7703,7 +7760,7 @@
         <v>47166109</v>
       </c>
       <c r="AC13" s="27">
-        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A13,Parâmetros!$D$14,$AC$10,"cp") / 1000,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PatrimonioLiquido(A13,Parâmetros!$D$11,$AC$10,"cp") / 1000,-1)</f>
         <v>48939678</v>
       </c>
       <c r="AD13" s="27">
@@ -7764,10 +7821,10 @@
       </c>
       <c r="AR13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>39.1068</v>
+        <v>39.566499999999998</v>
       </c>
       <c r="AS13" s="16">
-        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$14,$AS$10,"12m","cp") / 1,-1)</f>
+        <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AS$10,"12m","cp") / 1,-1)</f>
         <v>34.666899999999998</v>
       </c>
       <c r="AT13" s="16">
@@ -7780,18 +7837,18 @@
       </c>
       <c r="AV13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( E13 + F13 + G13) / 3),-1)</f>
-        <v>29.489297577844567</v>
+        <v>29.835916807963891</v>
       </c>
       <c r="AW13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.3666999999999998</v>
+        <v>7.4532999999999996</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.4400000000000002E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="AY13" s="16">
-        <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$14,$AY$10,"12m") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$AY$10,"12m") / 1, -1)</f>
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="AZ13" s="16">
@@ -7840,14 +7897,14 @@
       </c>
       <c r="BK13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>347456921.30828005</v>
+        <v>351540953.83721995</v>
       </c>
       <c r="BL13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
         <v>0.75270000000000004</v>
       </c>
       <c r="BM13" s="16">
-        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A13,Parâmetros!$D$14,$BM$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LiquidezCorrente(A13,Parâmetros!$D$11,$BM$10,"cp") / 1, -1)</f>
         <v>0.94669999999999999</v>
       </c>
       <c r="BN13" s="16">
@@ -7863,7 +7920,7 @@
         <v>2.46E-2</v>
       </c>
       <c r="BQ13" s="16">
-        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A13,Parâmetros!$D$14,$BQ$10,"cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.DivTotBrutaPatrLiq(A13,Parâmetros!$D$11,$BQ$10,"cp") / 1, -1)</f>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="BR13" s="16">
@@ -7879,7 +7936,7 @@
         <v>0.56559999999999999</v>
       </c>
       <c r="BU13" s="16">
-        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A13,Parâmetros!$D$14,$BU$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.LucroLiquidoAcao(A13,Parâmetros!$D$11,$BU$10,"12m","cp") / 1, -1)</f>
         <v>0.59750000000000003</v>
       </c>
       <c r="BV13" s="16">
@@ -7975,7 +8032,7 @@
         <v>0.42720000000000002</v>
       </c>
       <c r="CS13" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A13,Parâmetros!$D$14,$CS$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemLiquida(A13,Parâmetros!$D$11,$CS$10,"12m","cp") / 1, -1)</f>
         <v>0.20380000000000001</v>
       </c>
       <c r="CT13" s="16">
@@ -8023,7 +8080,7 @@
         <v>0.45960000000000001</v>
       </c>
       <c r="DE13" s="16">
-        <f ca="1">IFERROR(_xll.GI.MargemBruta(A13,Parâmetros!$D$14,$DE$10,"12m","cp") / 1, -1)</f>
+        <f ca="1">IFERROR(_xll.GI.MargemBruta(A13,Parâmetros!$D$11,$DE$10,"12m","cp") / 1, -1)</f>
         <v>0.61650000000000005</v>
       </c>
       <c r="DF13" s="16">
@@ -8068,7 +8125,7 @@
       </c>
       <c r="DP13" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A13) / 1, -1)</f>
-        <v>24737.48</v>
+        <v>24875.95</v>
       </c>
       <c r="DQ13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
@@ -8076,7 +8133,7 @@
       </c>
       <c r="DR13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>22.11</v>
+        <v>22.38</v>
       </c>
       <c r="DS13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$DS$10)) / 1,-1)</f>
@@ -8142,7 +8199,7 @@
       </c>
       <c r="AV16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.7425426957751124</v>
+        <v>8.6363205711037825</v>
       </c>
       <c r="DQ16" s="6"/>
       <c r="DR16" s="7"/>
@@ -8163,7 +8220,7 @@
       </c>
       <c r="AV18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((D12 + F12 + G12) / 3)</f>
-        <v>9.1595649995829884</v>
+        <v>9.04827604290554</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8241,23 +8298,23 @@
       </c>
       <c r="D24" s="6">
         <f ca="1">EDATE(AV24,2)</f>
-        <v>43218</v>
+        <v>43221</v>
       </c>
       <c r="E24" s="6">
         <f ca="1">EDATE(AV24,-3)</f>
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="F24" s="6">
         <f ca="1">DATE(YEAR(AV24)+2,MONTH(AV24),DAY(AV24))</f>
-        <v>43889</v>
+        <v>43891</v>
       </c>
       <c r="G24" s="6">
         <f ca="1">DATE(YEAR(AV24)-3,MONTH(AV24),DAY(AV24))</f>
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="AV24" s="6">
         <f ca="1">NOW()</f>
-        <v>43159.52121053241</v>
+        <v>43160.636221527777</v>
       </c>
     </row>
     <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10265,6 +10322,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Dados!A11</f>
+        <v>AALR3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Dados!A12</f>
+        <v>ABCB4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Dados!A13</f>
+        <v>ABEV3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="2" r:id="rId1"/>
-    <sheet name="Dados" sheetId="1" r:id="rId2"/>
-    <sheet name="Critérios" sheetId="4" r:id="rId3"/>
-    <sheet name="Análise" sheetId="3" r:id="rId4"/>
+    <sheet name="Valor - Graham" sheetId="5" r:id="rId2"/>
+    <sheet name="Dados" sheetId="1" r:id="rId3"/>
+    <sheet name="Critérios" sheetId="4" r:id="rId4"/>
+    <sheet name="Análise" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="477">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1472,6 +1473,21 @@
   <si>
     <t xml:space="preserve">SETOR
 </t>
+  </si>
+  <si>
+    <t>Tamanho da empresa</t>
+  </si>
+  <si>
+    <t>Seleção de ações - Empresas de valor</t>
+  </si>
+  <si>
+    <t>Grau defensivo</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>TAMANHO</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1666,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1663,7 +1722,485 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>5.8400000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>2.4299999999999999E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>91568737000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
       <tp>
         <v>48939678000</v>
         <stp/>
@@ -1675,7 +2212,67 @@
         <tr r="AD13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
       <tp>
         <v>1539616000</v>
         <stp/>
@@ -1717,79 +2314,1899 @@
         <tr r="AI12" s="1"/>
       </tp>
       <tp>
-        <v>2633973000</v>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>3228438000</v>
         <stp/>
         <stp>PatrimonioLiquido</stp>
         <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2015</stp>
         <stp/>
         <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>46008814000</v>
         <stp/>
         <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
         <stp>ABCB4</stp>
         <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA12" s="1"/>
+      </tp>
+      <tp>
+        <v>25962.52</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ11" s="1"/>
+      </tp>
+      <tp>
+        <v>2177.81</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="DQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>21730363000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>3284332000</v>
         <stp/>
         <stp>PatrimonioLiquido</stp>
         <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC12" s="1"/>
+      </tp>
+      <tp>
+        <v>795.24</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
         <stp>ABCB4</stp>
         <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
         <stp>ABCB4</stp>
         <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>5.7799999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.4772000000000001</v>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>19839347000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>22.24</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>18.55</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.15939999999999999</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>15.38</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.47149999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1275</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1801999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>1.0958000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.56820000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>7.5975000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>1.4752000000000001</v>
         <stp/>
         <stp>PrecoValorPatrimonial</stp>
         <stp>AALR3</stp>
@@ -1799,1519 +4216,772 @@
         <tr r="AX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>2.4199999999999999E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY13" s="1"/>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>7.6281999999999996</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC11" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB11" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>1.1057999999999999</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LiquidezCorrente</stp>
+        <stp>LucroLiquido</stp>
         <stp>AALR3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
-      </tp>
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23419999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33739999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>8.6732999999999993</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>22.34</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>47.868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS13" s="1"/>
-      </tp>
-      <tp>
-        <v>72.754800000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+        <tr r="M11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>18.78</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB12" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS12" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.47149999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>15.4</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV12" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY12" s="1"/>
+        <tr r="AA11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX12" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED13" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW11" s="1"/>
-      </tp>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>7331968000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AW21" s="1"/>
+        <tr r="E13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>8.84</v>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>14.65</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA12" s="1"/>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>7.93</v>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>14.8</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ12" s="1"/>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.95</v>
-        <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC13" s="1"/>
-      </tp>
-      <tp>
-        <v>5.3</v>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
         <stp>31/12/2013</stp>
         <stp/>
         <stp/>
         <tr r="DX13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW11" s="1"/>
       </tp>
       <tp>
         <v>418733000</v>
@@ -3324,2029 +4994,139 @@
         <tr r="AW16" s="1"/>
         <tr r="E12" s="1"/>
       </tp>
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ13" s="1"/>
-      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp>
-        <v>15.94</v>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp>
+        <v>8</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU13" s="1"/>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp>
+        <v>11.04</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED13" s="1"/>
-      </tp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>43161.567293599539</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>1815122653.6400001</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW11" s="1"/>
+        <tr r="BL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BW12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-      <tp>
-        <v>7331968000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW21" s="1"/>
-        <tr r="E13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW13" s="1"/>
+        <tr r="AU11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2.79</v>
+        <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA11" s="1"/>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp>
-        <v>2177.81</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="DQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp>
-        <v>106665000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>21730363000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>25962.52</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD12" s="1"/>
-      </tp>
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-      <tp>
-        <v>19839347000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1801999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>795.24</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>3284332000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>91568737000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>1788230000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.56820000000000004</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>43160</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>0.15939999999999999</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>3631783276.98</v>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>3598907709.5100002</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABCB4</stp>
         <stp/>
         <stp/>
         <stp/>
+        <tr r="AW12" s="1"/>
         <tr r="AW18" s="1"/>
-        <tr r="AW12" s="1"/>
         <tr r="AW16" s="1"/>
         <tr r="BL12" s="1"/>
       </tp>
       <tp>
-        <v>350966346500.46002</v>
+        <v>349552426572.75</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABEV3</stp>
@@ -5357,29 +5137,214 @@
         <tr r="BL13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>43160</v>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>43161.567343518516</v>
         <stp/>
         <stp>UltimoNegocio</stp>
         <stp>ABEV3</stp>
         <tr r="DR13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.1f9719a736ae4f2ea6c590ecd66b8aeb">
-      <tp>
-        <v>1817483021.2</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW11" s="1"/>
-        <tr r="BL11" s="1"/>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
       <tp>
         <v>328379000</v>
         <stp/>
@@ -5391,115 +5356,235 @@
         <tr r="I12" s="1"/>
       </tp>
       <tp>
-        <v>388557000</v>
+        <v>0.23419999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33739999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS13" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>97511000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.5ecf84d368824d79a8506411827d4460">
-      <tp>
-        <v>43160</v>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>8.5947999999999993</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED12" s="1"/>
+      </tp>
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
+      <tp>
+        <v>47.675199999999997</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS13" s="1"/>
+      </tp>
+      <tp>
+        <v>72.660300000000007</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
+      <tp>
+        <v>43161.563159826386</v>
         <stp/>
         <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8d9fdef0f3cb461a9a71480db50e0022">
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
+        <stp>AALR3</stp>
+        <tr r="DR11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5825,7 +5910,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43161.394217939815</v>
+        <v>43161.56502800926</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5975,10 +6060,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>Critérios!$A5</f>
+        <v>AALR3</v>
+      </c>
+      <c r="B5">
+        <f>Critérios!B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>Critérios!$A6</f>
+        <v>ABCB4</v>
+      </c>
+      <c r="B6">
+        <f>Critérios!B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>Critérios!$A7</f>
+        <v>ABEV3</v>
+      </c>
+      <c r="B7">
+        <f>Critérios!B7</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5:B7">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ED423"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AP34" sqref="AP34:AP40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,7 +6909,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>72.754800000000003</v>
+        <v>72.660300000000007</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -6769,11 +6925,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>314.49784066447484</v>
+        <v>314.08940191036515</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.4772000000000001</v>
+        <v>1.4752000000000001</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A11) / 1, -1)</f>
@@ -6829,7 +6985,7 @@
       </c>
       <c r="BL11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1817483.0212000001</v>
+        <v>1815122.6536400001</v>
       </c>
       <c r="BM11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -7061,11 +7217,11 @@
       </c>
       <c r="DR11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>15.4</v>
+        <v>15.38</v>
       </c>
       <c r="DT11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -7290,7 +7446,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.6732999999999993</v>
+        <v>8.5947999999999993</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7306,15 +7462,15 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.1027764715111879</v>
+        <v>9.0203764715028338</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.1057999999999999</v>
+        <v>1.0958000000000001</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.7799999999999997E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="AZ12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -7366,7 +7522,7 @@
       </c>
       <c r="BL12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3631783.2769800001</v>
+        <v>3598907.7095100004</v>
       </c>
       <c r="BM12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -7598,11 +7754,11 @@
       </c>
       <c r="DR12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.78</v>
+        <v>18.55</v>
       </c>
       <c r="DT12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -7827,7 +7983,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>47.868000000000002</v>
+        <v>47.675199999999997</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7843,15 +7999,15 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>29.78714884363518</v>
+        <v>29.667146901113814</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.6281999999999996</v>
+        <v>7.5975000000000001</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.4199999999999999E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="AZ13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -7903,7 +8059,7 @@
       </c>
       <c r="BL13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>350966346.50046003</v>
+        <v>349552426.57274997</v>
       </c>
       <c r="BM13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -8135,11 +8291,11 @@
       </c>
       <c r="DR13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>22.34</v>
+        <v>22.24</v>
       </c>
       <c r="DT13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -8205,7 +8361,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.6732673970764189</v>
+        <v>8.5947553918845667</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -8226,7 +8382,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.0869852452281297</v>
+        <v>9.0047281902926262</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8320,7 +8476,7 @@
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43161.394217939815</v>
+        <v>43161.56502800926</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10327,55 +10483,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Dados!A11</f>
         <v>AALR3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f>IF(Dados!AO11 &gt; Parâmetros!$A$16,1,-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Dados!A12</f>
         <v>ABCB4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>IF(Dados!AO12 &gt; Parâmetros!$A$16,1,-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Dados!A13</f>
         <v>ABEV3</v>
       </c>
+      <c r="B7" s="2">
+        <f>IF(Dados!AO13 &gt; Parâmetros!$A$16,1,-1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B5:B8">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E17">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="480">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1488,6 +1488,15 @@
   </si>
   <si>
     <t>TAMANHO</t>
+  </si>
+  <si>
+    <t>Liquidez corrente</t>
+  </si>
+  <si>
+    <t>Valor mínimo de Liquidez corrente aceitável</t>
+  </si>
+  <si>
+    <t>LIQUIDEZ CORRENTE</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1675,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1678,6 +1701,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1722,2332 +1829,236 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1788230000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC11" s="1"/>
-      </tp>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>1.5002</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>7.6897000000000002</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>2.4E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.56820000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>5.8099999999999999E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>1.1005</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
+        <stp>LiquidezCorrente</stp>
         <stp>AALR3</stp>
         <stp>3T_2017</stp>
         <stp/>
         <stp>SP</stp>
-        <tr r="AD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>5.8400000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>2.4299999999999999E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>91568737000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA12" s="1"/>
-      </tp>
-      <tp>
-        <v>25962.52</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ11" s="1"/>
-      </tp>
-      <tp>
-        <v>2177.81</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="DQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>106665000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>21730363000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>3284332000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC12" s="1"/>
-      </tp>
-      <tp>
-        <v>795.24</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>19839347000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>22.24</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>18.55</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW11" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.15939999999999999</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>15.38</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.47149999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
         <tr r="BN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP11" s="1"/>
       </tp>
       <tp>
         <v>1.1801999999999999</v>
@@ -4059,994 +2070,65 @@
         <stp>NP</stp>
         <tr r="BM12" s="1"/>
       </tp>
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO12" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>1.0958000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP13" s="1"/>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>43164.455995370372</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="DR12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.56820000000000004</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM13" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM11" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>7.5975000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>1.4752000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC11" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB11" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED13" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW13" s="1"/>
-      </tp>
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>7331968000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW21" s="1"/>
-        <tr r="E13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX13" s="1"/>
-      </tp>
-      <tp>
-        <v>418733000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW16" s="1"/>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>43161.567293599539</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>1815122653.6400001</v>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>1845807431.9200001</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>AALR3</stp>
@@ -5057,63 +2139,55 @@
         <tr r="BL11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2.79</v>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>6.07</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC12" s="1"/>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED12" s="1"/>
+      </tp>
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>3598907709.5100002</v>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>3614378564.79</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABCB4</stp>
@@ -5126,7 +2200,7 @@
         <tr r="BL12" s="1"/>
       </tp>
       <tp>
-        <v>349552426572.75</v>
+        <v>353794186355.88</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABEV3</stp>
@@ -5137,7 +2211,82 @@
         <tr r="BL13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>43164.456921296296</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABEV3</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
       <tp>
         <v>6.86</v>
         <stp/>
@@ -5148,8 +2297,198 @@
         <stp/>
         <tr r="EB12" s="1"/>
       </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
       <tp>
         <v>20.4329</v>
         <stp/>
@@ -5161,6 +2500,16 @@
         <tr r="AV13" s="1"/>
       </tp>
       <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+      <tp>
         <v>19.127300000000002</v>
         <stp/>
         <stp>PrecoLucro</stp>
@@ -5170,191 +2519,40 @@
         <stp>SP</stp>
         <tr r="AU13" s="1"/>
       </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>244622000</v>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>43161.567343518516</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABEV3</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
       <tp>
         <v>0.23419999999999999</v>
         <stp/>
@@ -5375,108 +2573,2812 @@
         <stp>NP</stp>
         <tr r="CS13" s="1"/>
       </tp>
-      <tp>
-        <v>357184000</v>
+    </main>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>43164.455000000002</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>7331968000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AW21" s="1"/>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED13" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.65</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp>
+        <v>418733000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AW16" s="1"/>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2009</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
+        <tr r="Z13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="AA12" s="1"/>
+        <tr r="AA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
+      </tp>
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>244622000</v>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB13" s="1"/>
+      </tp>
+      <tp>
+        <v>750.62</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>3284332000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>19839347000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA12" s="1"/>
+      </tp>
+      <tp>
+        <v>25913.52</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>2500739000</v>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
         <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>21730363000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+      <tp>
+        <v>2175.5700000000002</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="DQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>46008814000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
         <stp>4T_2009</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+        <tr r="DB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT11" s="1"/>
+      </tp>
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY12" s="1"/>
+        <tr r="DC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>91568737000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>8.5947999999999993</v>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1275</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>15.65</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.15939999999999999</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.47149999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>8.6317000000000004</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>ABCB4</stp>
@@ -5486,55 +5388,287 @@
         <tr r="AS12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU12" s="1"/>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED12" s="1"/>
-      </tp>
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT12" s="1"/>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>18.690000000000001</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="DS12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.96dd82d5a569498388cc3762ee4e3e1d">
-      <tp>
-        <v>47.675199999999997</v>
+    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
+      <tp>
+        <v>22.45</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+      <tp>
+        <v>48.253700000000002</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>ABEV3</stp>
@@ -5544,7 +5678,7 @@
         <tr r="AS13" s="1"/>
       </tp>
       <tp>
-        <v>72.660300000000007</v>
+        <v>73.888599999999997</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>AALR3</stp>
@@ -5552,39 +5686,6 @@
         <stp>1</stp>
         <stp>NP</stp>
         <tr r="AS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9b9efbeeb4214b6ab077809bd0652bb0">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.437ec3d37fa94f47b71cc911627b7505">
-      <tp>
-        <v>43161.563159826386</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="DR11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -5878,10 +5979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5910,7 +6011,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43161.56502800926</v>
+        <v>43164.462270023148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6050,6 +6151,14 @@
       </c>
       <c r="B16" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6060,33 +6169,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Critérios!$A5</f>
         <v>AALR3</v>
@@ -6095,8 +6207,12 @@
         <f>Critérios!B5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>Critérios!C5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Critérios!$A6</f>
         <v>ABCB4</v>
@@ -6105,8 +6221,12 @@
         <f>Critérios!B6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>Critérios!C6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Critérios!$A7</f>
         <v>ABEV3</v>
@@ -6115,13 +6235,25 @@
         <f>Critérios!B7</f>
         <v>1</v>
       </c>
+      <c r="C7">
+        <f>Critérios!C7</f>
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6133,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ED423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AP34" sqref="AP34:AP40"/>
+    <sheetView topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6909,7 +7041,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>72.660300000000007</v>
+        <v>73.888599999999997</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -6925,11 +7057,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>314.08940191036515</v>
+        <v>319.39910571379136</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.4752000000000001</v>
+        <v>1.5002</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A11) / 1, -1)</f>
@@ -6985,7 +7117,7 @@
       </c>
       <c r="BL11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1815122.6536400001</v>
+        <v>1845807.4319200001</v>
       </c>
       <c r="BM11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -7213,7 +7345,7 @@
       </c>
       <c r="DQ11" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A11) / 1, -1)</f>
-        <v>795.24</v>
+        <v>750.62</v>
       </c>
       <c r="DR11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
@@ -7221,7 +7353,7 @@
       </c>
       <c r="DS11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>15.38</v>
+        <v>15.65</v>
       </c>
       <c r="DT11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -7446,7 +7578,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.5947999999999993</v>
+        <v>8.6317000000000004</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7462,15 +7594,15 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.0203764715028338</v>
+        <v>9.0591529420950003</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.0958000000000001</v>
+        <v>1.1005</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.8400000000000001E-2</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="AZ12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -7522,7 +7654,7 @@
       </c>
       <c r="BL12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3598907.7095100004</v>
+        <v>3614378.5647899997</v>
       </c>
       <c r="BM12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -7750,7 +7882,7 @@
       </c>
       <c r="DQ12" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A12) / 1, -1)</f>
-        <v>2177.81</v>
+        <v>2175.5700000000002</v>
       </c>
       <c r="DR12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
@@ -7758,7 +7890,7 @@
       </c>
       <c r="DS12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.55</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="DT12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -7983,7 +8115,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>47.675199999999997</v>
+        <v>48.253700000000002</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7999,15 +8131,15 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>29.667146901113814</v>
+        <v>30.027152728677898</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.5975000000000001</v>
+        <v>7.6897000000000002</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.4299999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AZ13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -8059,7 +8191,7 @@
       </c>
       <c r="BL13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>349552426.57274997</v>
+        <v>353794186.35588002</v>
       </c>
       <c r="BM13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -8287,7 +8419,7 @@
       </c>
       <c r="DQ13" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A13) / 1, -1)</f>
-        <v>25962.52</v>
+        <v>25913.52</v>
       </c>
       <c r="DR13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
@@ -8295,7 +8427,7 @@
       </c>
       <c r="DS13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>22.24</v>
+        <v>22.45</v>
       </c>
       <c r="DT13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -8361,7 +8493,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.5947553918845667</v>
+        <v>8.6317022178572032</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -8382,7 +8514,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.0047281902926262</v>
+        <v>9.0434373926152158</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8460,23 +8592,23 @@
       </c>
       <c r="E24" s="6">
         <f ca="1">EDATE(AW24,2)</f>
-        <v>43222</v>
+        <v>43225</v>
       </c>
       <c r="F24" s="6">
         <f ca="1">EDATE(AW24,-3)</f>
-        <v>43071</v>
+        <v>43074</v>
       </c>
       <c r="G24" s="6">
         <f ca="1">DATE(YEAR(AW24)+2,MONTH(AW24),DAY(AW24))</f>
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="H24" s="6">
         <f ca="1">DATE(YEAR(AW24)-3,MONTH(AW24),DAY(AW24))</f>
-        <v>42065</v>
+        <v>42068</v>
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43161.56502800926</v>
+        <v>43164.462270023148</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10485,33 +10617,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Dados!A11</f>
         <v>AALR3</v>
@@ -10520,8 +10655,12 @@
         <f>IF(Dados!AO11 &gt; Parâmetros!$A$16,1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>IF(Dados!BM11 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Dados!A12</f>
         <v>ABCB4</v>
@@ -10530,8 +10669,12 @@
         <f>IF(Dados!AO12 &gt; Parâmetros!$A$16,1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>IF(Dados!BM12 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Dados!A13</f>
         <v>ABEV3</v>
@@ -10540,25 +10683,37 @@
         <f>IF(Dados!AO13 &gt; Parâmetros!$A$16,1,-1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>IF(Dados!BM13 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="483">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1497,6 +1497,17 @@
   </si>
   <si>
     <t>LIQUIDEZ CORRENTE</t>
+  </si>
+  <si>
+    <t>Lucros ininterruptos (10 anos)</t>
+  </si>
+  <si>
+    <t>Lucros initerruptos (5 anos)</t>
+  </si>
+  <si>
+    <t>HISTÓRICO DE LUCROS
+Verde = 10 anos
+Amarelo = 5 anos</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1671,11 +1682,14 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1693,28 +1707,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,34 +1729,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1829,10 +1794,256 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp t="s">
+        <v/>
+        <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
         <stp/>
@@ -1841,7 +2052,1777 @@
         <tr r="AY11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>91568737000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+      <tp>
+        <v>46008814000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>5.79E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>2.3800000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="BU11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.56820000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM13" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>2175.5700000000002</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="DQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CW12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>25913.52</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp>
+        <v>19839347000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR13" s="1"/>
+      </tp>
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>21730363000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>1.1801999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>750.62</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO12" s="1"/>
+      </tp>
+      <tp>
+        <v>3284332000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC12" s="1"/>
+      </tp>
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0c0c7345da4845b0ab2b49790c1aba8a">
+      <tp>
+        <v>43164.59913584491</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+      <tp>
+        <v>18.77</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>8.6686999999999994</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>48.660800000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS13" s="1"/>
+      </tp>
+      <tp>
+        <v>74.502799999999993</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0c0c7345da4845b0ab2b49790c1aba8a">
+      <tp>
+        <v>22.69</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0c0c7345da4845b0ab2b49790c1aba8a">
+      <tp>
+        <v>43164.600689918982</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABEV3</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0c0c7345da4845b0ab2b49790c1aba8a">
+      <tp>
+        <v>15.77</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.0c0c7345da4845b0ab2b49790c1aba8a">
+      <tp>
+        <v>43164.599581493057</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>1.1052</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="AZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>1.5126999999999999</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>7.7545999999999999</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
       <tp t="s">
         <v>BCO ABC BRASIL S.A.</v>
         <stp/>
@@ -1852,18 +3833,20 @@
         <stp/>
         <tr r="B12" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
         <stp/>
@@ -1874,746 +3857,695 @@
         <stp/>
         <tr r="B11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>1.5002</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>7.6897000000000002</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>2.4E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.56820000000000004</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>5.8099999999999999E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>1.1005</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BN11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1801999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BM12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>43164.455995370372</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>1845807431.9200001</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW11" s="1"/>
-        <tr r="BL11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED12" s="1"/>
-      </tp>
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>3614378564.79</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW12" s="1"/>
-        <tr r="AW18" s="1"/>
-        <tr r="AW16" s="1"/>
-        <tr r="BL12" s="1"/>
-      </tp>
-      <tp>
-        <v>353794186355.88</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW13" s="1"/>
-        <tr r="BL13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>43164.456921296296</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABEV3</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.23419999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33739999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>43164.455000000002</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU13" s="1"/>
+        <tr r="AA11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>14.65</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
         <stp>31/12/2012</stp>
         <stp/>
         <stp/>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
         <tr r="DY11" s="1"/>
       </tp>
       <tp>
-        <v>24981000</v>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+      <tp>
+        <v>418733000</v>
         <stp/>
         <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp>1</stp>
         <stp>NP</stp>
-        <tr r="E11" s="1"/>
-      </tp>
+        <tr r="AW16" s="1"/>
+        <tr r="E12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp>
         <v>7331968000</v>
         <stp/>
@@ -2626,3066 +4558,1117 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED13" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT13" s="1"/>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW13" s="1"/>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV13" s="1"/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.47149999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp>
+        <v>7.02</v>
+        <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="DV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>10.16</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="DX13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="DT11" s="1"/>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="DW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.15939999999999999</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="ED11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EA13" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="DW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="DZ13" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp>
-        <v>418733000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW16" s="1"/>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="DT12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="ED12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
+        <tr r="DG11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
         <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC11" s="1"/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB11" s="1"/>
-      </tp>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="DU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="DZ12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="P11" s="1"/>
+        <tr r="DP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="DX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.1275</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
+        <tr r="DM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="DY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.23419999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33739999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>3629849420.0700002</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW18" s="1"/>
+        <tr r="AW12" s="1"/>
+        <tr r="AW16" s="1"/>
+        <tr r="BL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>356779128425.48999</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW13" s="1"/>
+        <tr r="BL13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.940c7f53f4a44ec78bd5f3d0156119fa">
+      <tp>
+        <v>1861149821.0599999</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW11" s="1"/>
+        <tr r="BL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BV13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f5ed541099ed40fdafbc8e254b9a94ad">
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BS11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2008</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2009</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EB13" s="1"/>
-      </tp>
-      <tp>
-        <v>750.62</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>3284332000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="AZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>19839347000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA12" s="1"/>
-      </tp>
-      <tp>
-        <v>25913.52</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>106665000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>21730363000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-      <tp>
-        <v>2175.5700000000002</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="DQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="BU12" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC13" s="1"/>
-      </tp>
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT11" s="1"/>
-      </tp>
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1788230000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CT13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>91568737000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>15.65</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.15939999999999999</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.47149999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>8.6317000000000004</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
         <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>18.690000000000001</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e6aebae84cd24406a0a38fd03fadf9d6">
-      <tp>
-        <v>22.45</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BV11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BW11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.9bef1917e33e4b93b224c23941cd1be4">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.da22dd3ba62c4cfca3e0bb1332d39677">
-      <tp>
-        <v>48.253700000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS13" s="1"/>
-      </tp>
-      <tp>
-        <v>73.888599999999997</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6011,7 +5994,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43164.462270023148</v>
+        <v>43164.597899768516</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,25 +6152,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -6197,8 +6184,11 @@
       <c r="C4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Critérios!$A5</f>
         <v>AALR3</v>
@@ -6211,8 +6201,12 @@
         <f>Critérios!C5</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f ca="1">IF(Critérios!D5, 2, IF(Critérios!E5, 1, -1))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Critérios!$A6</f>
         <v>ABCB4</v>
@@ -6225,8 +6219,12 @@
         <f>Critérios!C6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f ca="1">IF(Critérios!D6, 2, IF(Critérios!E6, 1, -1))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Critérios!$A7</f>
         <v>ABEV3</v>
@@ -6239,21 +6237,36 @@
         <f>Critérios!C7</f>
         <v>-1</v>
       </c>
+      <c r="D7">
+        <f ca="1">IF(Critérios!D7, 2, IF(Critérios!E7, 1, -1))</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D7">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6265,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ED423"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7041,7 +7054,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>73.888599999999997</v>
+        <v>74.502799999999993</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7057,11 +7070,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>319.39910571379136</v>
+        <v>322.05395761550443</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.5002</v>
+        <v>1.5126999999999999</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A11) / 1, -1)</f>
@@ -7117,7 +7130,7 @@
       </c>
       <c r="BL11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1845807.4319200001</v>
+        <v>1861149.82106</v>
       </c>
       <c r="BM11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -7353,7 +7366,7 @@
       </c>
       <c r="DS11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>15.65</v>
+        <v>15.77</v>
       </c>
       <c r="DT11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -7578,7 +7591,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.6317000000000004</v>
+        <v>8.6686999999999994</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7594,15 +7607,15 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.0591529420950003</v>
+        <v>9.0979294126871668</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.1005</v>
+        <v>1.1052</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.8099999999999999E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="AZ12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -7654,7 +7667,7 @@
       </c>
       <c r="BL12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3614378.5647899997</v>
+        <v>3629849.42007</v>
       </c>
       <c r="BM12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -7890,7 +7903,7 @@
       </c>
       <c r="DS12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.690000000000001</v>
+        <v>18.77</v>
       </c>
       <c r="DT12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -8115,7 +8128,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>48.253700000000002</v>
+        <v>48.660800000000002</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8131,15 +8144,15 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>30.027152728677898</v>
+        <v>30.280490162889649</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.6897000000000002</v>
+        <v>7.7545999999999999</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.4E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="AZ13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$AZ$10,"12m") / 1, -1)</f>
@@ -8191,7 +8204,7 @@
       </c>
       <c r="BL13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>353794186.35588002</v>
+        <v>356779128.42548996</v>
       </c>
       <c r="BM13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -8427,7 +8440,7 @@
       </c>
       <c r="DS13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>22.45</v>
+        <v>22.69</v>
       </c>
       <c r="DT13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$DT$10)) / 1,-1)</f>
@@ -8493,7 +8506,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.6317022178572032</v>
+        <v>8.6686490438298396</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -8514,7 +8527,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.0434373926152158</v>
+        <v>9.0821465949378055</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8608,7 +8621,7 @@
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43164.462270023148</v>
+        <v>43164.597899768516</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10617,25 +10630,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10645,8 +10663,14 @@
       <c r="C4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Dados!A11</f>
         <v>AALR3</v>
@@ -10659,8 +10683,16 @@
         <f>IF(Dados!BM11 &gt;= Parâmetros!$A$17, 1, -1)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="b">
+        <f t="array" aca="1" ref="D5" ca="1">AND(Dados!E11:O11 &gt;0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="array" aca="1" ref="E5" ca="1">AND(Dados!E11:J11 &gt; 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Dados!A12</f>
         <v>ABCB4</v>
@@ -10673,8 +10705,16 @@
         <f>IF(Dados!BM12 &gt;= Parâmetros!$A$17, 1, -1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="b">
+        <f t="array" aca="1" ref="D6" ca="1">AND(Dados!E12:O12 &gt;0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="array" aca="1" ref="E6" ca="1">AND(Dados!E12:J12 &gt; 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Dados!A13</f>
         <v>ABEV3</v>
@@ -10687,32 +10727,46 @@
         <f>IF(Dados!BM13 &gt;= Parâmetros!$A$17, 1, -1)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="b">
+        <f t="array" aca="1" ref="D7" ca="1">AND(Dados!E13:O13 &gt;0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="array" aca="1" ref="E7" ca="1">AND(Dados!E13:J13 &gt; 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1464,9 +1464,6 @@
     <t>Critérios para seleção de ações</t>
   </si>
   <si>
-    <t>Esta aba registra os critérios usados pelas diversas estratégias. Nenhum valor deve ser editado</t>
-  </si>
-  <si>
     <t xml:space="preserve">SETOR
 </t>
   </si>
@@ -1523,6 +1520,50 @@
     <t>HISTÓRICO DE DIVIDENDOS
 Verde = 10 anos
 Amarelo = 5 anos</t>
+  </si>
+  <si>
+    <t>Taxa de crescimento médio anual do lucro (CAGR)</t>
+  </si>
+  <si>
+    <t>CAGR mínimo desejável (%)</t>
+  </si>
+  <si>
+    <t>CAGR mínimo aceitável (%)</t>
+  </si>
+  <si>
+    <t>CAGR máximo sustentável (%)</t>
+  </si>
+  <si>
+    <t>Razão de crescimento nos lucros correspondente</t>
+  </si>
+  <si>
+    <t>Kd (10 anos)</t>
+  </si>
+  <si>
+    <t>Kd (5 anos)</t>
+  </si>
+  <si>
+    <t>Ka (10 anos)</t>
+  </si>
+  <si>
+    <t>Ks (10 anos)</t>
+  </si>
+  <si>
+    <t>Ka (5 anos)</t>
+  </si>
+  <si>
+    <t>Ks (5 anos)</t>
+  </si>
+  <si>
+    <t>Taxa de crescimento dos lucros (K)</t>
+  </si>
+  <si>
+    <t>Esta aba registra os critérios usados pelas diversas estratégias. Nenhum valor deve ser editado.</t>
+  </si>
+  <si>
+    <t>CRESCIMENTO DOS LUCROS
+Verde = Desejável
+Amarelo = aceitável</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1700,32 +1741,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1799,6 +1820,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1830,29 +1872,61 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.56820000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>91568737000</v>
         <stp/>
@@ -1863,6 +1937,30 @@
         <stp>NP</stp>
         <tr r="AO13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BY11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
       <tp t="s">
         <v>AMBEV S.A.</v>
         <stp/>
@@ -1873,436 +1971,76 @@
         <stp/>
         <tr r="B13" s="1"/>
       </tp>
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
         <stp/>
         <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp>
-        <v>1788230000</v>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>28760537000</v>
         <stp/>
         <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AO11" s="1"/>
+        <tr r="AO12" s="1"/>
+      </tp>
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>1.5327999999999999</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>7.6692</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+        <tr r="Q11" s="1"/>
+      </tp>
       <tp>
         <v>21730363000</v>
         <stp/>
@@ -2314,777 +2052,1252 @@
         <tr r="Q13" s="1"/>
       </tp>
       <tp>
-        <v>106665000</v>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1.1801999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>43167.679188842594</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="ED11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.6</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0124</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.38069999999999998</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.86499999999999999</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72509999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.093</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.087</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
         <stp/>
         <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.32</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>43167.684660856481</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABEV3</stp>
+        <tr r="ED13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>43167.684009837962</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="ED12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.45</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.89400000000000002</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.58599999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
         <stp>AALR3</stp>
         <stp/>
         <stp>1</stp>
         <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
+        <tr r="AY11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
         <stp/>
         <stp>1</stp>
         <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>1.1157999999999999</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>16</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="EE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI11" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>8.7517999999999994</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>18.96</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="EE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>22.46</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="EE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.32</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.51</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>48.125100000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS13" s="1"/>
-      </tp>
-      <tp>
-        <v>75.494900000000001</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.47149999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.093</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.087</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.86499999999999999</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72509999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0124</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.38069999999999998</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="E11" s="1"/>
+        <tr r="AY13" s="1"/>
       </tp>
       <tp>
         <v>7331968000</v>
@@ -3098,85 +3311,17 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH12" s="1"/>
-      </tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>418733000</v>
         <stp/>
@@ -3188,36 +3333,8 @@
         <tr r="AW16" s="1"/>
         <tr r="E12" s="1"/>
       </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR12" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>1.0860000000000001</v>
         <stp/>
@@ -3228,474 +3345,187 @@
         <stp>NP</stp>
         <tr r="AY12" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>25800.19</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="EC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
+        <tr r="DP12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.89400000000000002</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.58599999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="AY13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
+      <tp>
+        <v>2083.2399999999998</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="EC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="AY11" s="1"/>
+        <tr r="AQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>612.95000000000005</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="EC11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>3284332000</v>
         <stp/>
@@ -3706,63 +3536,8 @@
         <stp>NP</stp>
         <tr r="AC12" s="1"/>
       </tp>
-      <tp>
-        <v>617.57000000000005</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="EC11" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>1.1801999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>19839347000</v>
         <stp/>
@@ -3773,6 +3548,200 @@
         <stp>NP</stp>
         <tr r="AR13" s="1"/>
       </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>1.1040000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ12" s="1"/>
+      </tp>
       <tp>
         <v>5.2699999999999997E-2</v>
         <stp/>
@@ -3804,487 +3773,565 @@
         <tr r="BU12" s="1"/>
       </tp>
       <tp>
-        <v>0.113</v>
+        <v>2.1700000000000001E-2</v>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2013</stp>
         <stp>1</stp>
         <stp/>
-        <tr r="BP12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
         <stp>4T_2012</stp>
         <stp>1</stp>
-        <stp/>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>2.3400000000000001E-2</v>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL13" s="1"/>
-      </tp>
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.8878000000000004</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
         <stp>ABEV3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>24052.29</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="EC13" s="1"/>
+        <tr r="AX13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+        <tr r="AC11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="CC11" s="1"/>
-      </tp>
-      <tp>
-        <v>2049.67</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="EC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.56820000000000004</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+        <tr r="CG13" s="1"/>
+      </tp>
       <tp>
         <v>0.2117</v>
         <stp/>
@@ -4296,61 +4343,255 @@
         <tr r="CG11" s="1"/>
       </tp>
       <tp>
-        <v>1230385000</v>
+        <v>2994121000</v>
         <stp/>
         <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>1.5386</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="CG13" s="1"/>
+        <tr r="AX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>46008814000</v>
         <stp/>
@@ -4362,692 +4603,515 @@
         <tr r="AC13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>2.1652999999999998</v>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>5.79E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO11" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>1.3815</v>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
         <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="CG12" s="1"/>
+        <tr r="AP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK11" s="1"/>
+      </tp>
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH11" s="1"/>
+      </tp>
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI11" s="1"/>
+      </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>5.7299999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>2.4E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>11272513000</v>
         <stp/>
@@ -5059,439 +5123,99 @@
         <tr r="AP13" s="1"/>
       </tp>
       <tp>
-        <v>14.97</v>
+        <v>14.65</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.59</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF11" s="1"/>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>8.6593999999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>23.11</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="EE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL13" s="1"/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB12" s="1"/>
-      </tp>
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP13" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
         <stp>3T_2017</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM11" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>43165.455487858795</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABEV3</stp>
-        <tr r="ED13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.33739999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23419999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
         <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
       </tp>
       <tp>
         <v>0.16739999999999999</v>
@@ -5503,486 +5227,142 @@
         <stp>NP</stp>
         <tr r="DE12" s="1"/>
       </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL13" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>43165.455261608797</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="ED12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP12" s="1"/>
-      </tp>
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.4147b4e10a644a5f8d647acaf244a942">
-      <tp>
-        <v>43165.455342453701</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="ED11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ11" s="1"/>
-      </tp>
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>3664658844.4499998</v>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>3625981706.25</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABCB4</stp>
@@ -5995,7 +5375,7 @@
         <tr r="BX12" s="1"/>
       </tp>
       <tp>
-        <v>352851573070.73999</v>
+        <v>362906114778.90002</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABEV3</stp>
@@ -6006,21 +5386,179 @@
         <tr r="BX13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL12" s="1"/>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.342f89b7597e4d4ebf3d83f2dada20d8">
-      <tp>
-        <v>1885933680.4400001</v>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.23419999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33739999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>49.496499999999997</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS13" s="1"/>
+      </tp>
+      <tp>
+        <v>75.778300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+      <tp>
+        <v>1893014783.1199999</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>AALR3</stp>
@@ -6031,7 +5569,79 @@
         <tr r="BX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>18.739999999999998</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="EE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
+      <tp>
+        <v>16.04</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="EE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
       <tp>
         <v>0.15939999999999999</v>
         <stp/>
@@ -6042,27 +5652,471 @@
         <stp>NP</stp>
         <tr r="CS13" s="1"/>
       </tp>
-      <tp>
-        <v>2.0299999999999999E-2</v>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB11" s="1"/>
+      </tp>
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.47149999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1275</v>
         <stp/>
         <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp>1</stp>
         <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.85c35ad996e5441ab14f99e6c962845d">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM12" s="1"/>
+        <tr r="CS12" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6356,10 +6410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,37 +6423,40 @@
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="92.25" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:8" ht="92.25" x14ac:dyDescent="1.35">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43165.453375694444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43167.681830092595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>422</v>
       </c>
@@ -6416,7 +6473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>423</v>
       </c>
@@ -6433,7 +6490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -6450,7 +6507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -6467,7 +6524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>430</v>
       </c>
@@ -6483,7 +6540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>431</v>
       </c>
@@ -6493,7 +6550,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>428</v>
       </c>
@@ -6514,28 +6571,110 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16">
+        <f>(1+(A16/100))^10</f>
+        <v>1.4802442849183446</v>
+      </c>
+      <c r="F16" t="s">
+        <v>491</v>
+      </c>
+      <c r="G16">
+        <f>(1+(A16/100))^5</f>
+        <v>1.2166529024000003</v>
+      </c>
+      <c r="H16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17">
+        <f t="shared" ref="E17:E18" si="0">(1+(A17/100))^10</f>
+        <v>1.3439163793441218</v>
+      </c>
+      <c r="F17" t="s">
+        <v>493</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17:G18" si="1">(1+(A17/100))^5</f>
+        <v>1.1592740742999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2.5937424601000019</v>
+      </c>
+      <c r="F18" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.6105100000000006</v>
+      </c>
+      <c r="H18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
         <v>240000</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
-        <v>477</v>
+      <c r="B22" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6546,47 +6685,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>474</v>
       </c>
-      <c r="B4" t="s">
-        <v>475</v>
-      </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Critérios!$A5</f>
         <v>AALR3</v>
@@ -6607,8 +6750,12 @@
         <f ca="1">IF(Critérios!F5, 2, IF(Critérios!G5, 1, -1))</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f ca="1">IF(Critérios!D5, 5, -5)</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Critérios!$A6</f>
         <v>ABCB4</v>
@@ -6629,8 +6776,12 @@
         <f ca="1">IF(Critérios!F6, 2, IF(Critérios!G6, 1, -1))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f ca="1">IF(Critérios!D6, 5, -5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Critérios!$A7</f>
         <v>ABEV3</v>
@@ -6650,6 +6801,20 @@
       <c r="E7">
         <f ca="1">IF(Critérios!F7, 2, IF(Critérios!G7, 1, -1))</f>
         <v>-1</v>
+      </c>
+      <c r="F7">
+        <f ca="1">IF(Critérios!D7, 5, -5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>(1 + IF(E14,1,2))</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6681,14 +6846,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>-1</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6699,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP423"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6800,7 +6965,7 @@
         <v>437</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>438</v>
@@ -6980,7 +7145,7 @@
         <v>441</v>
       </c>
       <c r="AY10" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AZ10" s="17">
         <f ca="1">Parâmetros!$B$11</f>
@@ -7157,7 +7322,7 @@
         <v>2007</v>
       </c>
       <c r="CS10" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="CT10" s="17">
         <f ca="1">Parâmetros!$B$11</f>
@@ -7529,7 +7694,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>75.494900000000001</v>
+        <v>75.778300000000002</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7545,11 +7710,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>326.34256453365634</v>
+        <v>327.56788079598545</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.5327999999999999</v>
+        <v>1.5386</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A11) / 1, -1)</f>
@@ -7653,7 +7818,7 @@
       </c>
       <c r="BX11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1885933.68044</v>
+        <v>1893014.7831199998</v>
       </c>
       <c r="BY11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -7881,7 +8046,7 @@
       </c>
       <c r="EC11" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A11) / 1, -1)</f>
-        <v>617.57000000000005</v>
+        <v>612.95000000000005</v>
       </c>
       <c r="ED11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
@@ -7889,7 +8054,7 @@
       </c>
       <c r="EE11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>16</v>
+        <v>16.04</v>
       </c>
       <c r="EF11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8114,7 +8279,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.7517999999999994</v>
+        <v>8.6593999999999998</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8130,11 +8295,11 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.1851764715195419</v>
+        <v>9.0882352950391248</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.1157999999999999</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A12) / 1, -1)</f>
@@ -8186,7 +8351,7 @@
       </c>
       <c r="BK12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.7299999999999997E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="BL12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -8238,7 +8403,7 @@
       </c>
       <c r="BX12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3664658.8444499997</v>
+        <v>3625981.7062499998</v>
       </c>
       <c r="BY12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -8466,7 +8631,7 @@
       </c>
       <c r="EC12" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A12) / 1, -1)</f>
-        <v>2049.67</v>
+        <v>2083.2399999999998</v>
       </c>
       <c r="ED12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
@@ -8474,7 +8639,7 @@
       </c>
       <c r="EE12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.96</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="EF12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8699,7 +8864,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>48.125100000000003</v>
+        <v>49.496499999999997</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8715,11 +8880,11 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>29.947151433663652</v>
+        <v>30.800498580482213</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.6692</v>
+        <v>7.8878000000000004</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A13) / 1, -1)</f>
@@ -8771,7 +8936,7 @@
       </c>
       <c r="BK13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.4E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="BL13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -8823,7 +8988,7 @@
       </c>
       <c r="BX13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>352851573.07073998</v>
+        <v>362906114.77890003</v>
       </c>
       <c r="BY13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -8910,7 +9075,7 @@
         <v>0.15939999999999999</v>
       </c>
       <c r="CT13" s="16">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR(F13 / AD13, -1)</f>
         <v>0.1917644002479951</v>
       </c>
       <c r="CU13" s="16">
@@ -9051,7 +9216,7 @@
       </c>
       <c r="EC13" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A13) / 1, -1)</f>
-        <v>24052.29</v>
+        <v>25800.19</v>
       </c>
       <c r="ED13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
@@ -9059,7 +9224,7 @@
       </c>
       <c r="EE13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>22.46</v>
+        <v>23.11</v>
       </c>
       <c r="EF13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9125,7 +9290,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.7517794022682711</v>
+        <v>8.6594123373366791</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -9146,7 +9311,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.169242300163635</v>
+        <v>9.072469294357159</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9224,23 +9389,23 @@
       </c>
       <c r="E24" s="6">
         <f ca="1">EDATE(AW24,2)</f>
-        <v>43226</v>
+        <v>43228</v>
       </c>
       <c r="F24" s="6">
         <f ca="1">EDATE(AW24,-3)</f>
-        <v>43075</v>
+        <v>43077</v>
       </c>
       <c r="G24" s="6">
         <f ca="1">DATE(YEAR(AW24)+2,MONTH(AW24),DAY(AW24))</f>
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="H24" s="6">
         <f ca="1">DATE(YEAR(AW24)-3,MONTH(AW24),DAY(AW24))</f>
-        <v>42069</v>
+        <v>42071</v>
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43165.453375694444</v>
+        <v>43167.681830092595</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11252,7 +11417,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11261,6 +11426,7 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11271,7 +11437,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -11279,22 +11445,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" t="s">
         <v>479</v>
       </c>
-      <c r="E4" t="s">
-        <v>480</v>
-      </c>
       <c r="F4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" t="s">
         <v>484</v>
       </c>
-      <c r="G4" t="s">
-        <v>485</v>
+      <c r="H4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11303,11 +11472,11 @@
         <v>AALR3</v>
       </c>
       <c r="B5" s="2">
-        <f>IF(Dados!AO11 &gt; Parâmetros!$A$16,1,-1)</f>
+        <f>IF(Dados!AO11 &gt; Parâmetros!$A$21,1,-1)</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>IF(Dados!BY11 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <f>IF(Dados!BY11 &gt;= Parâmetros!$A$22, 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="D5" t="b">
@@ -11325,6 +11494,10 @@
       <c r="G5" t="b">
         <f t="array" aca="1" ref="G5" ca="1">AND(Dados!AZ11:BD11 &gt; 0)</f>
         <v>0</v>
+      </c>
+      <c r="H5">
+        <f ca="1">IF(D5,AVERAGE(Dados!F11:H11)/AVERAGE(Dados!M11:O11), IF(E5, AVERAGE(Dados!F11:G11) / AVERAGE(Dados!N11:O11),-1))</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -11333,11 +11506,11 @@
         <v>ABCB4</v>
       </c>
       <c r="B6" s="2">
-        <f>IF(Dados!AO12 &gt; Parâmetros!$A$16,1,-1)</f>
+        <f>IF(Dados!AO12 &gt; Parâmetros!$A$21,1,-1)</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>IF(Dados!BY12 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <f>IF(Dados!BY12 &gt;= Parâmetros!$A$22, 1, -1)</f>
         <v>1</v>
       </c>
       <c r="D6" t="b">
@@ -11355,6 +11528,10 @@
       <c r="G6" t="b">
         <f t="array" aca="1" ref="G6" ca="1">AND(Dados!AZ12:BD12 &gt; 0)</f>
         <v>1</v>
+      </c>
+      <c r="H6">
+        <f ca="1">IF(D6,AVERAGE(Dados!F12:H12)/AVERAGE(Dados!M12:O12), IF(E6, AVERAGE(Dados!F12:G12) / AVERAGE(Dados!N12:O12),-1))</f>
+        <v>2.3748578866227907</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -11363,11 +11540,11 @@
         <v>ABEV3</v>
       </c>
       <c r="B7" s="2">
-        <f>IF(Dados!AO13 &gt; Parâmetros!$A$16,1,-1)</f>
+        <f>IF(Dados!AO13 &gt; Parâmetros!$A$21,1,-1)</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>IF(Dados!BY13 &gt;= Parâmetros!$A$17, 1, -1)</f>
+        <f>IF(Dados!BY13 &gt;= Parâmetros!$A$22, 1, -1)</f>
         <v>-1</v>
       </c>
       <c r="D7" t="b">
@@ -11385,6 +11562,10 @@
       <c r="G7" t="b">
         <f t="array" aca="1" ref="G7" ca="1">AND(Dados!AZ13:BD13 &gt; 0)</f>
         <v>0</v>
+      </c>
+      <c r="H7">
+        <f ca="1">IF(D7,AVERAGE(Dados!F13:H13)/AVERAGE(Dados!M13:O13), IF(E7, AVERAGE(Dados!F13:G13) / AVERAGE(Dados!N13:O13),-1))</f>
+        <v>2.1244156830436687</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11398,26 +11579,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="501">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1564,6 +1564,9 @@
     <t>CRESCIMENTO DOS LUCROS
 Verde = Desejável
 Amarelo = aceitável</t>
+  </si>
+  <si>
+    <t>Análise da taxa de crescimento dos lucros</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1749,196 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1872,19 +2064,293 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.56820000000000004</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BY13" s="1"/>
+      </tp>
+      <tp>
+        <v>91568737000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
         <stp/>
         <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.26440000000000002</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="BY11" s="1"/>
+      </tp>
       <tp>
         <v>1788230000</v>
         <stp/>
@@ -1896,119 +2362,278 @@
         <tr r="AO11" s="1"/>
       </tp>
       <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
         <stp/>
         <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.56820000000000004</v>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG13" s="1"/>
+      </tp>
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+      <tp>
+        <v>46008814000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>24952.48</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="EC13" s="1"/>
+      </tp>
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>21730363000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1.1801999999999999</v>
         <stp/>
         <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="BY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>91568737000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.26440000000000002</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BY11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+        <tr r="BY12" s="1"/>
+      </tp>
       <tp>
         <v>28760537000</v>
         <stp/>
@@ -2019,1463 +2644,32 @@
         <stp>NP</stp>
         <tr r="AO12" s="1"/>
       </tp>
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="Q12" s="1"/>
+        <tr r="AQ12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>106665000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>21730363000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1.1801999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="BY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>43167.679188842594</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="ED11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.6</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0124</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.38069999999999998</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.86499999999999999</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72509999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.093</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.087</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.32</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.51</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>43167.684660856481</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABEV3</stp>
-        <tr r="ED13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>43167.684009837962</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="ED12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.89400000000000002</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.58599999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY13" s="1"/>
-      </tp>
-      <tp>
-        <v>7331968000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW21" s="1"/>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>418733000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW16" s="1"/>
-        <tr r="E12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1.0860000000000001</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>25800.19</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="EC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp>
         <v>0.24610000000000001</v>
         <stp/>
@@ -3487,24 +2681,147 @@
         <tr r="CC11" s="1"/>
       </tp>
       <tp>
-        <v>2083.2399999999998</v>
+        <v>2058.62</v>
         <stp/>
         <stp>QtdeNegocio21d</stp>
         <stp>ABCB4</stp>
         <tr r="EC12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>612.04999999999995</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="EC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp>
         <v>210782000</v>
         <stp/>
@@ -3515,17 +2832,226 @@
         <stp>NP</stp>
         <tr r="AR11" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>612.95000000000005</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="EC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL12" s="1"/>
+      </tp>
       <tp>
         <v>3284332000</v>
         <stp/>
@@ -3536,8 +3062,6 @@
         <stp>NP</stp>
         <tr r="AC12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>19839347000</v>
         <stp/>
@@ -3548,1819 +3072,40 @@
         <stp>NP</stp>
         <tr r="AR13" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT11" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>1.1040000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL12" s="1"/>
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>43167</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABEV3</stp>
+        <tr r="ED13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
-      </tp>
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>2.3400000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-      <tp>
-        <v>7.8878000000000004</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG11" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>1.5386</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>5.79E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO11" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA12" s="1"/>
-      </tp>
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK11" s="1"/>
-      </tp>
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH11" s="1"/>
-      </tp>
-      <tp>
-        <v>11.04</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI11" s="1"/>
-      </tp>
-      <tp>
-        <v>8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>8.6593999999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>23.11</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="EE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>366048159062.70001</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW13" s="1"/>
+        <tr r="BX13" s="1"/>
+      </tp>
       <tp>
         <v>3625981706.25</v>
         <stp/>
@@ -5374,31 +3119,2500 @@
         <tr r="AW16" s="1"/>
         <tr r="BX12" s="1"/>
       </tp>
-      <tp>
-        <v>362906114778.90002</v>
+    </main>
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>43167</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="ED12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>1885933680.4400001</v>
         <stp/>
         <stp>ValorMercado</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW13" s="1"/>
-        <tr r="BX13" s="1"/>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW11" s="1"/>
+        <tr r="BX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1275</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>43167</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="ED11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.15939999999999999</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1.0860000000000001</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>1.1040000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>1.5327999999999999</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>5.79E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>7.9560000000000004</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>2.3199999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.58599999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.89400000000000002</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.45</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.65</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG11" s="1"/>
+      </tp>
+      <tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>7331968000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AW21" s="1"/>
+        <tr r="E13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP13" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL11" s="1"/>
+      </tp>
+      <tp>
+        <v>418733000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AW16" s="1"/>
+        <tr r="E12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
         <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp>
         <v>0.23419999999999999</v>
         <stp/>
@@ -5419,40 +5633,19 @@
         <stp>NP</stp>
         <tr r="DE13" s="1"/>
       </tp>
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>49.496499999999997</v>
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>23.3</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="EE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>49.924999999999997</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>ABEV3</stp>
@@ -5462,7 +5655,7 @@
         <tr r="AS13" s="1"/>
       </tp>
       <tp>
-        <v>75.778300000000002</v>
+        <v>75.494900000000001</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>AALR3</stp>
@@ -5472,7 +5665,129 @@
         <tr r="AS11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.32</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp t="s">
         <v/>
         <stp/>
@@ -5483,367 +5798,375 @@
         <stp>SP</stp>
         <tr r="CK11" s="1"/>
       </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
         <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+      <tp>
+        <v>8.6593999999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>1.087</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.093</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72509999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.86499999999999999</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2015</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.38069999999999998</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0124</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
         <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
         <stp>4T_2016</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CI11" s="1"/>
-      </tp>
+        <tr r="AU11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>18.75</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="EE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>AALR3</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH11" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP12" s="1"/>
+      </tp>
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.631ef44eea6c42c182244ec9d66af955">
-      <tp>
-        <v>1893014783.1199999</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW11" s="1"/>
-        <tr r="BX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>18.739999999999998</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="EE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.3e678d5506844aa0abb651acd32b975f">
-      <tp>
-        <v>16.04</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="EE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.15939999999999999</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB11" s="1"/>
-      </tp>
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
         <stp/>
         <stp>SP</stp>
         <tr r="CD12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
       <tp>
         <v>0.25580000000000003</v>
         <stp/>
@@ -5855,29 +6178,28 @@
         <tr r="DQ12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
+      <tp>
+        <v>15.98</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="EE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp>
         <v>7.02</v>
         <stp/>
@@ -5888,25 +6210,61 @@
         <stp/>
         <tr r="EH12" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM12" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
         <stp>4T_2015</stp>
         <stp/>
         <stp>SP</stp>
         <tr r="CF12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
       </tp>
       <tp>
         <v>0.47149999999999997</v>
@@ -5929,19 +6287,17 @@
         <tr r="DQ11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>10.16</v>
+    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>7.93</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL12" s="1"/>
+      </tp>
       <tp>
         <v>6.8000000000000005E-2</v>
         <stp/>
@@ -5951,172 +6307,6 @@
         <stp/>
         <stp>SP</stp>
         <tr r="CD13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f47937d6ee75437a84ea5bfd6eb592a8">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1275</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS12" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6413,7 +6603,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6445,7 +6635,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43167.681830092595</v>
+        <v>43168.371304629633</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6688,14 +6878,14 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6751,8 +6941,8 @@
         <v>-1</v>
       </c>
       <c r="F5">
-        <f ca="1">IF(Critérios!D5, 5, -5)</f>
-        <v>-5</v>
+        <f ca="1">IF(Critérios!H5 &gt; 0, ((Critérios!H5^(1 / 10)) - 1) * 100, -1)</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6777,8 +6967,8 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f ca="1">IF(Critérios!D6, 5, -5)</f>
-        <v>5</v>
+        <f ca="1">IF(Critérios!H6 &gt; 0, ((Critérios!H6^(1 / 10)) - 1) * 100, -1)</f>
+        <v>9.0344563781266984</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6803,8 +6993,8 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <f ca="1">IF(Critérios!D7, 5, -5)</f>
-        <v>5</v>
+        <f ca="1">IF(Critérios!H7 &gt; 0, ((Critérios!H7^(1 / 10)) - 1) * 100, -1)</f>
+        <v>7.8261130446289018</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6819,44 +7009,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{D8C04E2C-1009-4BDE-B56D-BFAF7AF9C426}">
+            <xm:f>Critérios!I5 = 2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F5:F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{25EF5E5C-033C-4AF8-8541-A782609880C5}">
+            <xm:f>Critérios!I5 = 1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F5:F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{56CDE4C5-0493-44AC-BA0A-ACF10060D021}">
+            <xm:f>Critérios!I5 = -1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F5:F7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7694,7 +7930,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>75.778300000000002</v>
+        <v>75.494900000000001</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7710,11 +7946,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>327.56788079598545</v>
+        <v>326.34256453365634</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.5386</v>
+        <v>1.5327999999999999</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A11) / 1, -1)</f>
@@ -7818,7 +8054,7 @@
       </c>
       <c r="BX11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1893014.7831199998</v>
+        <v>1885933.68044</v>
       </c>
       <c r="BY11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -8046,15 +8282,15 @@
       </c>
       <c r="EC11" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A11) / 1, -1)</f>
-        <v>612.95000000000005</v>
+        <v>612.04999999999995</v>
       </c>
       <c r="ED11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>16.04</v>
+        <v>15.98</v>
       </c>
       <c r="EF11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8631,15 +8867,15 @@
       </c>
       <c r="EC12" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A12) / 1, -1)</f>
-        <v>2083.2399999999998</v>
+        <v>2058.62</v>
       </c>
       <c r="ED12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.739999999999998</v>
+        <v>18.75</v>
       </c>
       <c r="EF12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8864,7 +9100,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>49.496499999999997</v>
+        <v>49.924999999999997</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8880,11 +9116,11 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>30.800498580482213</v>
+        <v>31.067169563863011</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.8878000000000004</v>
+        <v>7.9560000000000004</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A13) / 1, -1)</f>
@@ -8936,7 +9172,7 @@
       </c>
       <c r="BK13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.3400000000000001E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="BL13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -8988,7 +9224,7 @@
       </c>
       <c r="BX13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>362906114.77890003</v>
+        <v>366048159.06270003</v>
       </c>
       <c r="BY13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -9216,15 +9452,15 @@
       </c>
       <c r="EC13" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A13) / 1, -1)</f>
-        <v>25800.19</v>
+        <v>24952.48</v>
       </c>
       <c r="ED13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>23.11</v>
+        <v>23.3</v>
       </c>
       <c r="EF13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9389,23 +9625,23 @@
       </c>
       <c r="E24" s="6">
         <f ca="1">EDATE(AW24,2)</f>
-        <v>43228</v>
+        <v>43229</v>
       </c>
       <c r="F24" s="6">
         <f ca="1">EDATE(AW24,-3)</f>
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="G24" s="6">
         <f ca="1">DATE(YEAR(AW24)+2,MONTH(AW24),DAY(AW24))</f>
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="H24" s="6">
         <f ca="1">DATE(YEAR(AW24)-3,MONTH(AW24),DAY(AW24))</f>
-        <v>42071</v>
+        <v>42072</v>
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43167.681830092595</v>
+        <v>43168.371304513887</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11417,7 +11653,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11465,6 +11701,9 @@
       <c r="H4" t="s">
         <v>497</v>
       </c>
+      <c r="I4" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
@@ -11499,6 +11738,10 @@
         <f ca="1">IF(D5,AVERAGE(Dados!F11:H11)/AVERAGE(Dados!M11:O11), IF(E5, AVERAGE(Dados!F11:G11) / AVERAGE(Dados!N11:O11),-1))</f>
         <v>-1</v>
       </c>
+      <c r="I5">
+        <f ca="1">IF(D5, IF(H5 &gt;= Parâmetros!$E$16, 2, IF(H5 &gt;= Parâmetros!$E$17, 1, -1)), IF(E5, IF(H5 &gt;= Parâmetros!$G$16, 2, IF(H5 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
@@ -11533,6 +11776,10 @@
         <f ca="1">IF(D6,AVERAGE(Dados!F12:H12)/AVERAGE(Dados!M12:O12), IF(E6, AVERAGE(Dados!F12:G12) / AVERAGE(Dados!N12:O12),-1))</f>
         <v>2.3748578866227907</v>
       </c>
+      <c r="I6">
+        <f ca="1">IF(D6, IF(H6 &gt;= Parâmetros!$E$16, 2, IF(H6 &gt;= Parâmetros!$E$17, 1, -1)), IF(E6, IF(H6 &gt;= Parâmetros!$G$16, 2, IF(H6 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
@@ -11566,6 +11813,10 @@
       <c r="H7">
         <f ca="1">IF(D7,AVERAGE(Dados!F13:H13)/AVERAGE(Dados!M13:O13), IF(E7, AVERAGE(Dados!F13:G13) / AVERAGE(Dados!N13:O13),-1))</f>
         <v>2.1244156830436687</v>
+      </c>
+      <c r="I7">
+        <f ca="1">IF(D7, IF(H7 &gt;= Parâmetros!$E$16, 2, IF(H7 &gt;= Parâmetros!$E$17, 1, -1)), IF(E7, IF(H7 &gt;= Parâmetros!$G$16, 2, IF(H7 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -11579,26 +11830,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="503">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1567,6 +1567,14 @@
   </si>
   <si>
     <t>Análise da taxa de crescimento dos lucros</t>
+  </si>
+  <si>
+    <t>Alerta de lucros recentes decrescentes</t>
+  </si>
+  <si>
+    <t>ALERTA DE LUCROS DECRESCENTES
+Amarelo = alerta
+Vermelho = crítico</t>
   </si>
 </sst>
 </file>
@@ -1749,21 +1757,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -1782,160 +1776,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1978,6 +1818,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2064,119 +1925,201 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>7.9901999999999997</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
       <tp>
         <v>0.56820000000000004</v>
         <stp/>
@@ -2187,6 +2130,138 @@
         <stp>NP</stp>
         <tr r="BY13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>1.5634999999999999</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>91568737000</v>
         <stp/>
@@ -2197,6 +2272,8 @@
         <stp>NP</stp>
         <tr r="AO13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>25720576000</v>
         <stp/>
@@ -2207,140 +2284,6 @@
         <stp>NP</stp>
         <tr r="AQ13" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp>
         <v>0.26440000000000002</v>
         <stp/>
@@ -2352,49 +2295,29 @@
         <tr r="BY11" s="1"/>
       </tp>
       <tp>
-        <v>1788230000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>46008814000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <tr r="AC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>19085375000</v>
         <stp/>
@@ -2416,6 +2339,16 @@
         <tr r="CG11" s="1"/>
       </tp>
       <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+      <tp>
         <v>0.4667</v>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
@@ -2425,40 +2358,158 @@
         <stp>NP</stp>
         <tr r="CG13" s="1"/>
       </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
         <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
+      <tp>
+        <v>2058.62</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="EC12" s="1"/>
+      </tp>
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <tr r="AO12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>24952.48</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="EC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
       <tp>
         <v>0.42320000000000002</v>
         <stp/>
@@ -2470,116 +2521,41 @@
         <tr r="DN12" s="1"/>
       </tp>
       <tp>
-        <v>0.55169999999999997</v>
+        <v>0.39860000000000001</v>
         <stp/>
         <stp>MargemLiquida</stp>
         <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
         <tr r="DP12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>24952.48</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="EC13" s="1"/>
-      </tp>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>1.0964</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AX12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>106665000</v>
         <stp/>
@@ -2601,29 +2577,7 @@
         <tr r="Q13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>1.1801999999999999</v>
         <stp/>
@@ -2634,194 +2588,352 @@
         <stp>NP</stp>
         <tr r="BY12" s="1"/>
       </tp>
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>19839347000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
+        <tr r="AR13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC11" s="1"/>
-      </tp>
-      <tp>
-        <v>2058.62</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="EC12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL11" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
         <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
         <stp>1</stp>
         <stp/>
-        <tr r="BL11" s="1"/>
+        <tr r="BL13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>AALR3</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp/>
-        <tr r="BV11" s="1"/>
+        <tr r="BV13" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>AALR3</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2009</stp>
         <stp>1</stp>
         <stp/>
-        <tr r="BT11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
         <stp/>
         <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>612.04999999999995</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="EC11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>210782000</v>
         <stp/>
@@ -2833,225 +2945,14 @@
         <tr r="AR11" s="1"/>
       </tp>
       <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL12" s="1"/>
-      </tp>
+        <v>612.04999999999995</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="EC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>3284332000</v>
         <stp/>
@@ -3062,41 +2963,259 @@
         <stp>NP</stp>
         <tr r="AC12" s="1"/>
       </tp>
-      <tp>
-        <v>19839347000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>43167</v>
+    </main>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>43168.433303113423</v>
         <stp/>
         <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="ED11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>1923699561.4000001</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW11" s="1"/>
+        <tr r="BX11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>Financeiro e Outros</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Consumo não Cíclico</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>43168.43673267361</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
         <stp>ABEV3</stp>
         <tr r="ED13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>366048159062.70001</v>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.68069999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63429999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65620000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>367619181204.59998</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABEV3</stp>
@@ -3106,197 +3225,47 @@
         <tr r="AW13" s="1"/>
         <tr r="BX13" s="1"/>
       </tp>
-      <tp>
-        <v>3625981706.25</v>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>3600841566.4200001</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>ABCB4</stp>
         <stp/>
         <stp/>
         <stp/>
+        <tr r="AW18" s="1"/>
         <tr r="AW12" s="1"/>
-        <tr r="AW18" s="1"/>
         <tr r="AW16" s="1"/>
         <tr r="BX12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>43167</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="ED12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.66679999999999995</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>1885933680.4400001</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW11" s="1"/>
-        <tr r="BX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v>Financeiro e Outros</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Consumo não Cíclico</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
         <tr r="EB13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>0.65720000000000001</v>
         <stp/>
@@ -3328,95 +3297,25 @@
         <tr r="CS12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>43167</v>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>43168.436037581021</v>
         <stp/>
         <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="ED11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.66520000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.68069999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6724</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63429999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.61650000000000005</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR13" s="1"/>
+        <stp>ABCB4</stp>
+        <tr r="ED12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
       </tp>
       <tp>
         <v>0.15939999999999999</v>
@@ -3428,46 +3327,102 @@
         <stp>NP</stp>
         <tr r="CS13" s="1"/>
       </tp>
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
         <tr r="EB11" s="1"/>
       </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ11" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>22524244000</v>
         <stp/>
@@ -3478,122 +3433,159 @@
         <stp>NP</stp>
         <tr r="AP12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
       <tp t="s">
         <v/>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>2816407000</v>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
       <tp>
         <v>13083397000</v>
         <stp/>
@@ -3615,252 +3607,181 @@
         <tr r="G22" s="1"/>
       </tp>
       <tp>
-        <v>7850504000</v>
+        <v>12879141000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquido</stp>
         <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
         <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
         <stp/>
         <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
         <stp/>
         <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
+        <stp>AALR3</stp>
         <stp>4T_2014</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
+        <tr r="I11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
+      </tp>
       <tp>
         <v>1.0860000000000001</v>
         <stp/>
@@ -3871,20 +3792,90 @@
         <stp>NP</stp>
         <tr r="AY12" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>0.49280000000000002</v>
         <stp/>
@@ -3894,6 +3885,28 @@
         <stp>1</stp>
         <stp>SP</stp>
         <tr r="EB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA12" s="1"/>
       </tp>
       <tp>
         <v>55743000</v>
@@ -3905,1320 +3918,1373 @@
         <stp>NP</stp>
         <tr r="AP11" s="1"/>
       </tp>
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
         <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA12" s="1"/>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>5.8299999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>2.3099999999999999E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividendoPagoAcao</stp>
         <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.89400000000000002</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.58599999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.45</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.95</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK11" s="1"/>
+      </tp>
+      <tp>
+        <v>15.94</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>418733000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
         <stp/>
         <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AY11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>1.1040000000000001</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
+        <tr r="AW16" s="1"/>
+        <tr r="E12" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>1.5327999999999999</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>5.79E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>7.9560000000000004</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>2.3199999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.58599999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.89400000000000002</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>2.95</v>
-        <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>5.3</v>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.97</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>14.65</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG11" s="1"/>
+      </tp>
       <tp>
         <v>14.59</v>
         <stp/>
@@ -5229,16 +5295,8 @@
         <stp/>
         <tr r="EK13" s="1"/>
       </tp>
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG11" s="1"/>
-      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp>
         <v>24981000</v>
         <stp/>
@@ -5260,40 +5318,38 @@
         <tr r="AW21" s="1"/>
         <tr r="E13" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>14.97</v>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH11" s="1"/>
+      </tp>
+      <tp>
+        <v>11.04</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF11" s="1"/>
-      </tp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI11" s="1"/>
+      </tp>
       <tp>
         <v>8</v>
         <stp/>
@@ -5304,315 +5360,593 @@
         <stp/>
         <tr r="EM13" s="1"/>
       </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>1.0124</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.38069999999999998</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.093</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.087</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.86499999999999999</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72509999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>16.29</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="EE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>6.86</v>
+        <stp/>
         <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>11.04</v>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>2.79</v>
         <stp/>
         <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL13" s="1"/>
-      </tp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG13" s="1"/>
-      </tp>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP13" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF13" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI13" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH13" s="1"/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM11" s="1"/>
       </tp>
       <tp t="s">
         <v/>
         <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL11" s="1"/>
-      </tp>
-      <tp>
-        <v>418733000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AW16" s="1"/>
-        <tr r="E12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
         <stp>4T_2015</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
+        <tr r="CJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
+        <stp>AALR3</stp>
         <stp>3T_2017</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
+        <tr r="CH11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
+        <stp>AALR3</stp>
         <stp>4T_2009</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="CP13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
+        <tr r="CP11" s="1"/>
+      </tp>
       <tp>
         <v>0.23419999999999999</v>
         <stp/>
@@ -5634,18 +5968,74 @@
         <tr r="DE13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>23.3</v>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>23.35</v>
         <stp/>
         <stp>PrecoUltimo</stp>
         <stp>ABEV3</stp>
         <tr r="EE13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>49.924999999999997</v>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>50.139299999999999</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>ABEV3</stp>
@@ -5655,7 +6045,7 @@
         <tr r="AS13" s="1"/>
       </tp>
       <tp>
-        <v>75.494900000000001</v>
+        <v>77.006699999999995</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>AALR3</stp>
@@ -5665,205 +6055,125 @@
         <tr r="AS11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.32</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.51</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>ABCB4</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25580000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>ABCB4</stp>
         <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>ABCB4</stp>
         <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.47149999999999997</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.31909999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.ea34ca807564447789bcb03f7da07e47">
-      <tp>
-        <v>8.6593999999999998</v>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
+      <tp>
+        <v>8.5993999999999993</v>
         <stp/>
         <stp>PrecoLucro</stp>
         <stp>ABCB4</stp>
@@ -5873,440 +6183,37 @@
         <tr r="AS12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>1.087</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.093</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72509999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.86499999999999999</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.38069999999999998</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0124</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>18.75</v>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
+      <tp>
+        <v>18.600000000000001</v>
         <stp/>
         <stp>PrecoUltimo</stp>
         <stp>ABCB4</stp>
         <tr r="EE12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.79</v>
+    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+      <tp>
+        <v>10.16</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP12" s="1"/>
-      </tp>
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25580000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
         <stp>31/12/2014</stp>
         <stp/>
         <stp/>
         <tr r="EI12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.b953415da93d40f2b123421150ffd7e1">
-      <tp>
-        <v>15.98</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="EE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.47149999999999997</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.31909999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DQ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.947e7f78ceb447b88216472da31c57cb">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.8000000000000005E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6635,7 +6542,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43168.371304629633</v>
+        <v>43168.434220023148</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6875,10 +6782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6886,20 +6793,21 @@
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -6918,8 +6826,11 @@
       <c r="F4" s="35" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Critérios!$A5</f>
         <v>AALR3</v>
@@ -6944,8 +6855,12 @@
         <f ca="1">IF(Critérios!H5 &gt; 0, ((Critérios!H5^(1 / 10)) - 1) * 100, -1)</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f ca="1">Critérios!J5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Critérios!$A6</f>
         <v>ABCB4</v>
@@ -6970,8 +6885,12 @@
         <f ca="1">IF(Critérios!H6 &gt; 0, ((Critérios!H6^(1 / 10)) - 1) * 100, -1)</f>
         <v>9.0344563781266984</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f ca="1">Critérios!J6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Critérios!$A7</f>
         <v>ABEV3</v>
@@ -6996,8 +6915,12 @@
         <f ca="1">IF(Critérios!H7 &gt; 0, ((Critérios!H7^(1 / 10)) - 1) * 100, -1)</f>
         <v>7.8261130446289018</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f ca="1">Critérios!J7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -7009,41 +6932,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G7">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7052,7 +6986,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{D8C04E2C-1009-4BDE-B56D-BFAF7AF9C426}">
+          <x14:cfRule type="expression" priority="6" id="{D8C04E2C-1009-4BDE-B56D-BFAF7AF9C426}">
             <xm:f>Critérios!I5 = 2</xm:f>
             <x14:dxf>
               <fill>
@@ -7065,7 +6999,7 @@
           <xm:sqref>F5:F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{25EF5E5C-033C-4AF8-8541-A782609880C5}">
+          <x14:cfRule type="expression" priority="5" id="{25EF5E5C-033C-4AF8-8541-A782609880C5}">
             <xm:f>Critérios!I5 = 1</xm:f>
             <x14:dxf>
               <fill>
@@ -7078,7 +7012,7 @@
           <xm:sqref>F5:F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{56CDE4C5-0493-44AC-BA0A-ACF10060D021}">
+          <x14:cfRule type="expression" priority="4" id="{56CDE4C5-0493-44AC-BA0A-ACF10060D021}">
             <xm:f>Critérios!I5 = -1</xm:f>
             <x14:dxf>
               <fill>
@@ -7101,7 +7035,7 @@
   <dimension ref="A1:EP423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7930,7 +7864,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>75.494900000000001</v>
+        <v>77.006699999999995</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7946,11 +7880,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>326.34256453365634</v>
+        <v>332.87758459941165</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.5327999999999999</v>
+        <v>1.5634999999999999</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A11) / 1, -1)</f>
@@ -8054,7 +7988,7 @@
       </c>
       <c r="BX11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1885933.68044</v>
+        <v>1923699.5614</v>
       </c>
       <c r="BY11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -8286,11 +8220,11 @@
       </c>
       <c r="ED11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>15.98</v>
+        <v>16.29</v>
       </c>
       <c r="EF11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8515,7 +8449,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.6593999999999998</v>
+        <v>8.5993999999999993</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8531,11 +8465,11 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.0882352950391248</v>
+        <v>9.0252235303268549</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.1040000000000001</v>
+        <v>1.0964</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A12) / 1, -1)</f>
@@ -8587,7 +8521,7 @@
       </c>
       <c r="BK12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.79E-2</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="BL12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -8639,7 +8573,7 @@
       </c>
       <c r="BX12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3625981.7062499998</v>
+        <v>3600841.56642</v>
       </c>
       <c r="BY12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -8871,11 +8805,11 @@
       </c>
       <c r="ED12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.75</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="EF12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9100,7 +9034,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>49.924999999999997</v>
+        <v>50.139299999999999</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -9116,11 +9050,11 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>31.067169563863011</v>
+        <v>31.200505055553403</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.9560000000000004</v>
+        <v>7.9901999999999997</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A13) / 1, -1)</f>
@@ -9172,7 +9106,7 @@
       </c>
       <c r="BK13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.3199999999999998E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="BL13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -9224,7 +9158,7 @@
       </c>
       <c r="BX13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>366048159.06270003</v>
+        <v>367619181.20459998</v>
       </c>
       <c r="BY13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -9456,11 +9390,11 @@
       </c>
       <c r="ED13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>23.3</v>
+        <v>23.35</v>
       </c>
       <c r="EF13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9526,7 +9460,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.6594123373366791</v>
+        <v>8.5993737451311461</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -9547,7 +9481,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.072469294357159</v>
+        <v>9.0095668405829485</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9641,7 +9575,7 @@
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43168.371304513887</v>
+        <v>43168.434220023148</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11650,10 +11584,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11666,17 +11600,17 @@
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11704,8 +11638,11 @@
       <c r="I4" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Dados!A11</f>
         <v>AALR3</v>
@@ -11742,8 +11679,12 @@
         <f ca="1">IF(D5, IF(H5 &gt;= Parâmetros!$E$16, 2, IF(H5 &gt;= Parâmetros!$E$17, 1, -1)), IF(E5, IF(H5 &gt;= Parâmetros!$G$16, 2, IF(H5 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f ca="1">IF(Dados!F11 &gt;= Dados!G11, 1, IF(Dados!G11 &gt;= Dados!H11, 1, IF(Dados!H11 &gt;= Dados!I11, -1, -2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Dados!A12</f>
         <v>ABCB4</v>
@@ -11780,8 +11721,12 @@
         <f ca="1">IF(D6, IF(H6 &gt;= Parâmetros!$E$16, 2, IF(H6 &gt;= Parâmetros!$E$17, 1, -1)), IF(E6, IF(H6 &gt;= Parâmetros!$G$16, 2, IF(H6 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f ca="1">IF(Dados!F12 &gt;= Dados!G12, 1, IF(Dados!G12 &gt;= Dados!H12, 1, IF(Dados!H12 &gt;= Dados!I12, -1, -2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Dados!A13</f>
         <v>ABEV3</v>
@@ -11818,11 +11763,15 @@
         <f ca="1">IF(D7, IF(H7 &gt;= Parâmetros!$E$16, 2, IF(H7 &gt;= Parâmetros!$E$17, 1, -1)), IF(E7, IF(H7 &gt;= Parâmetros!$G$16, 2, IF(H7 &gt;= Parâmetros!$G$17, 1, -1)), -1))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f ca="1">IF(Dados!F13 &gt;= Dados!G13, 1, IF(Dados!G13 &gt;= Dados!H13, 1, IF(Dados!H13 &gt;= Dados!I13, -1, -2)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -11830,26 +11779,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/analise.xlsx
+++ b/analise.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="505">
   <si>
     <t>Critério Leitão</t>
   </si>
@@ -1575,6 +1575,14 @@
     <t>ALERTA DE LUCROS DECRESCENTES
 Amarelo = alerta
 Vermelho = crítico</t>
+  </si>
+  <si>
+    <t>Alerta de lucro sustentável</t>
+  </si>
+  <si>
+    <t>ALERTA DE LUCRO SUSTENTÁVEL
+Verde = ok
+Vermelho = nok</t>
   </si>
 </sst>
 </file>
@@ -1757,14 +1765,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1775,7 +1776,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1818,6 +1819,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1925,149 +1947,9 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.32140000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.30199999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32629999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33019999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.2757</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3246</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.20380000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.28689999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.53220000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1464</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>Bancos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.14330000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>Cervejas e Refrigerantes</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>7.9901999999999997</v>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>8.1029</v>
         <stp/>
         <stp>PrecoValorPatrimonial</stp>
         <stp>ABEV3</stp>
@@ -2077,49 +1959,65 @@
         <tr r="AX13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
-        <stp/>
-        <stp>Segmento</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="D11" s="1"/>
-      </tp>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v>AMBEV S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>BCO ABC BRASIL S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
+        <stp/>
+        <stp>RazaoSocial</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="B11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>1.5721000000000001</v>
+        <stp/>
+        <stp>PrecoValorPatrimonial</stp>
+        <stp>AALR3</stp>
         <stp/>
         <stp/>
         <stp>NP</stp>
-        <tr r="CC12" s="1"/>
+        <tr r="AX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>1788230000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ11" s="1"/>
-      </tp>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>0.56820000000000004</v>
         <stp/>
@@ -2131,159 +2029,19 @@
         <tr r="BY13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ11" s="1"/>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>5.6000000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1.6299999999999999E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF11" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0200000000000001E-2</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>1.5634999999999999</v>
-        <stp/>
-        <stp>PrecoValorPatrimonial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AX11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>91568737000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>25720576000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ13" s="1"/>
-      </tp>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>0.26440000000000002</v>
         <stp/>
@@ -2294,246 +2052,22 @@
         <stp>NP</stp>
         <tr r="BY11" s="1"/>
       </tp>
-      <tp>
-        <v>2.1652999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG12" s="1"/>
-      </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>46008814000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC13" s="1"/>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>2.2800000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BK13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>19085375000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2117</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG11" s="1"/>
-      </tp>
-      <tp>
-        <v>1230385000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4667</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CG13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2500739000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.24610000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC11" s="1"/>
-      </tp>
-      <tp>
-        <v>2058.62</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABCB4</stp>
-        <tr r="EC12" s="1"/>
-      </tp>
-      <tp>
-        <v>28760537000</v>
-        <stp/>
-        <stp>AtivoTotal</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AO12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>6358195000</v>
-        <stp/>
-        <stp>PassivoExigivelLp</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1948</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DG12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17369999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DF12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19700000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DI12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1734</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16389999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DK12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1578</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19889999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1797</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DL12" s="1"/>
-      </tp>
-      <tp>
-        <v>24952.48</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>ABEV3</stp>
-        <tr r="EC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.55169999999999997</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.42320000000000002</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39860000000000001</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DP12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>1.0964</v>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>1.1416999999999999</v>
         <stp/>
         <stp>PrecoValorPatrimonial</stp>
         <stp>ABCB4</stp>
@@ -2543,41 +2077,7 @@
         <tr r="AX12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2.3599999999999999E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="CC13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>106665000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q11" s="1"/>
-      </tp>
-      <tp>
-        <v>21730363000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="Q13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>1.1801999999999999</v>
         <stp/>
@@ -2589,507 +2089,530 @@
         <tr r="BY12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>19839347000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>2.1700000000000001E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17910000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.4300000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT12" s="1"/>
+      </tp>
+      <tp>
+        <v>5.2699999999999997E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.1100000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.5700000000000003E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR12" s="1"/>
+      </tp>
+      <tp>
+        <v>4.02E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.113</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP12" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1400000000000005E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.12330000000000001</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN12" s="1"/>
+      </tp>
+      <tp>
+        <v>8.7499999999999994E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.4199999999999993E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BL12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BT13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BU13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BV13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.0099999999999998E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BM13" s="1"/>
+      </tp>
+      <tp>
+        <v>3.49E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BN13" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0400000000000002E-2</v>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BO13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BP13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BQ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BR13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendYield</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BS13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>10.16</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>19.38</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABCB4</stp>
+        <tr r="EE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>8.9550000000000001</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AR13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT11" s="1"/>
+        <tr r="AS12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>8.7499999999999994E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.12330000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1400000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.113</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP12" s="1"/>
-      </tp>
-      <tp>
-        <v>4.02E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.5700000000000003E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.1100000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS12" s="1"/>
-      </tp>
-      <tp>
-        <v>5.2699999999999997E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.4300000000000005E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.17910000000000001</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.1700000000000001E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BS13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BR13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BQ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BP13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0400000000000002E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BO13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.49E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BN13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.0099999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BM13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BV13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BU13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BT13" s="1"/>
-      </tp>
-      <tp>
-        <v>6.4199999999999993E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BL12" s="1"/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>7.02</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH12" s="1"/>
+      </tp>
+      <tp>
+        <v>12.43</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.07</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP12" s="1"/>
+      </tp>
+      <tp>
+        <v>16.579999999999998</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>210782000</v>
-        <stp/>
-        <stp>PassivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>8.84</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>3749748548.4899998</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW12" s="1"/>
+        <tr r="AW18" s="1"/>
+        <tr r="AW16" s="1"/>
+        <tr r="BX12" s="1"/>
+      </tp>
+      <tp>
+        <v>372803554272.87</v>
+        <stp/>
+        <stp>ValorMercado</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="AW13" s="1"/>
+        <tr r="BX13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>7.93</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL12" s="1"/>
+      </tp>
+      <tp>
+        <v>9.4700000000000006</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>23.73</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>ABEV3</stp>
+        <tr r="EE13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>8.9600000000000009</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>50.846400000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
         <stp>NP</stp>
-        <tr r="AR11" s="1"/>
-      </tp>
-      <tp>
-        <v>612.04999999999995</v>
-        <stp/>
-        <stp>QtdeNegocio21d</stp>
-        <stp>AALR3</stp>
-        <tr r="EC11" s="1"/>
+        <tr r="AS13" s="1"/>
+      </tp>
+      <tp>
+        <v>77.431899999999999</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AS11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>3284332000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AC12" s="1"/>
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>43171.465949375</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>AALR3</stp>
+        <tr r="ED11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>43168.433303113423</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>AALR3</stp>
-        <tr r="ED11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>97511000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P12" s="1"/>
-      </tp>
-      <tp>
-        <v>150088000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O12" s="1"/>
-      </tp>
-      <tp>
-        <v>151154000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>328379000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>388557000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H12" s="1"/>
-      </tp>
-      <tp>
-        <v>391716000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>416653000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>202757000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M12" s="1"/>
-      </tp>
-      <tp>
-        <v>235599000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L12" s="1"/>
-      </tp>
-      <tp>
-        <v>240919000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K12" s="1"/>
-      </tp>
-      <tp>
-        <v>265417000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>1923699561.4000001</v>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>1934321215.4200001</v>
         <stp/>
         <stp>ValorMercado</stp>
         <stp>AALR3</stp>
@@ -3100,7 +2623,528 @@
         <tr r="BX11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>43171.46655380787</v>
+        <stp/>
+        <stp>UltimoNegocio</stp>
+        <stp>ABCB4</stp>
+        <tr r="ED12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.5</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.51</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.23419999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33739999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE13" s="1"/>
+      </tp>
+      <tp>
+        <v>1310997000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X12" s="1"/>
+      </tp>
+      <tp>
+        <v>1019601000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y12" s="1"/>
+      </tp>
+      <tp>
+        <v>1682149000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V12" s="1"/>
+      </tp>
+      <tp>
+        <v>1470226000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W12" s="1"/>
+      </tp>
+      <tp>
+        <v>2240732000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T12" s="1"/>
+      </tp>
+      <tp>
+        <v>1666916000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U12" s="1"/>
+      </tp>
+      <tp>
+        <v>2398094000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R12" s="1"/>
+      </tp>
+      <tp>
+        <v>2010847000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.15939999999999999</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0299999999999999E-2</v>
+        <stp/>
+        <stp>RentabilidadePatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CS11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72509999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.86499999999999999</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.087</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.093</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.54</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.38069999999999998</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0124</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD12" s="1"/>
+      </tp>
+      <tp>
+        <v>244622000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB12" s="1"/>
+      </tp>
+      <tp>
+        <v>357184000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z12" s="1"/>
+      </tp>
+      <tp>
+        <v>272023000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39660000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.37880000000000003</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA11" s="1"/>
+      </tp>
+      <tp>
+        <v>22524244000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>20.4329</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV13" s="1"/>
+      </tp>
+      <tp>
+        <v>19.127300000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU13" s="1"/>
+      </tp>
+      <tp>
+        <v>34.666899999999998</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>2.79</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO12" s="1"/>
+      </tp>
+      <tp>
+        <v>388557000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H12" s="1"/>
+      </tp>
+      <tp>
+        <v>328379000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>416653000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F12" s="1"/>
+      </tp>
+      <tp>
+        <v>391716000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>235599000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L12" s="1"/>
+      </tp>
+      <tp>
+        <v>202757000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M12" s="1"/>
+      </tp>
+      <tp>
+        <v>265417000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J12" s="1"/>
+      </tp>
+      <tp>
+        <v>240919000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp t="s">
         <v>Financeiro e Outros</v>
         <stp/>
@@ -3122,16 +3166,88 @@
         <tr r="C13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>43168.43673267361</v>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>151154000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.86</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABCB4</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN12" s="1"/>
+      </tp>
+      <tp>
+        <v>150088000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O12" s="1"/>
+      </tp>
+      <tp>
+        <v>97511000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>43171.467353460648</v>
         <stp/>
         <stp>UltimoNegocio</stp>
         <stp>ABEV3</stp>
         <tr r="ED13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.67579999999999996</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66520000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.6724</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV13" s="1"/>
+      </tp>
       <tp>
         <v>0.68069999999999997</v>
         <stp/>
@@ -3143,34 +3259,34 @@
         <tr r="DW13" s="1"/>
       </tp>
       <tp>
-        <v>0.6724</v>
+        <v>0.65620000000000001</v>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66520000000000001</v>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.66349999999999998</v>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67579999999999996</v>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.61650000000000005</v>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX13" s="1"/>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR13" s="1"/>
       </tp>
       <tp>
         <v>0.63429999999999997</v>
@@ -3182,109 +3298,100 @@
         <stp>SP</stp>
         <tr r="DS13" s="1"/>
       </tp>
-      <tp>
-        <v>0.61650000000000005</v>
+    </main>
+    <main first="rtdsrv.07e4a3d5bb984ee2b598eb61428be033">
+      <tp>
+        <v>16.420000000000002</v>
+        <stp/>
+        <stp>PrecoUltimo</stp>
+        <stp>AALR3</stp>
+        <tr r="EE11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v>Saúde</v>
+        <stp/>
+        <stp>Setor</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.60299999999999998</v>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.65720000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV11" s="1"/>
+      </tp>
+      <tp>
+        <v>60.070500000000003</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>AALR3</stp>
         <stp>3T_2017</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="DR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.66349999999999998</v>
+        <tr r="AT11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.66679999999999995</v>
         <stp/>
         <stp>MargemBruta</stp>
         <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.65620000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>367619181204.59998</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW13" s="1"/>
-        <tr r="BX13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>Saúde</v>
-        <stp/>
-        <stp>Setor</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>3600841566.4200001</v>
-        <stp/>
-        <stp>ValorMercado</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="AW18" s="1"/>
-        <tr r="AW12" s="1"/>
-        <tr r="AW16" s="1"/>
-        <tr r="BX12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.66679999999999995</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
         <stp>4T_2007</stp>
         <stp>1</stp>
         <stp>SP</stp>
         <tr r="EB13" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.65720000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.60299999999999998</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ13" s="1"/>
+      <tp>
+        <v>0.16739999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="DE12" s="1"/>
       </tp>
       <tp>
         <v>0.1275</v>
@@ -3296,1920 +3403,100 @@
         <stp>NP</stp>
         <tr r="CS12" s="1"/>
       </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2010</stp>
+        <stp/>
+        <stp/>
+        <tr r="EM13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI11" s="1"/>
+      </tp>
+      <tp>
+        <v>11.04</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH11" s="1"/>
+      </tp>
+      <tp>
+        <v>14.59</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.65</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG11" s="1"/>
+      </tp>
     </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>43168.436037581021</v>
-        <stp/>
-        <stp>UltimoNegocio</stp>
-        <stp>ABCB4</stp>
-        <tr r="ED12" s="1"/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>14.97</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>14.8</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2.0299999999999999E-2</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.15939999999999999</v>
-        <stp/>
-        <stp>RentabilidadePatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="CS13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.37880000000000003</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39660000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>22524244000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2816407000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P13" s="1"/>
-      </tp>
-      <tp>
-        <v>5959937000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N13" s="1"/>
-      </tp>
-      <tp>
-        <v>3059478000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O13" s="1"/>
-      </tp>
-      <tp>
-        <v>11354070000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J13" s="1"/>
-      </tp>
-      <tp>
-        <v>10642555000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K13" s="1"/>
-      </tp>
-      <tp>
-        <v>8719764000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L13" s="1"/>
-      </tp>
-      <tp>
-        <v>7619243000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M13" s="1"/>
-      </tp>
-      <tp>
-        <v>7850504000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F21" s="1"/>
-      </tp>
-      <tp>
-        <v>136490000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="F22" s="1"/>
-      </tp>
-      <tp>
-        <v>2124833000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>2289831000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2017</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="AW22" s="1"/>
-      </tp>
-      <tp>
-        <v>12431547000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>2T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H21" s="1"/>
-      </tp>
-      <tp>
-        <v>9384888000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F13" s="1"/>
-        <tr r="G21" s="1"/>
-      </tp>
-      <tp>
-        <v>13083397000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>4833734000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>2</stp>
-        <stp>SP</stp>
-        <tr r="G22" s="1"/>
-      </tp>
-      <tp>
-        <v>12879141000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H13" s="1"/>
-      </tp>
-      <tp>
-        <v>12362019000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>1T_2018</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="E21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="P11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="N11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="O11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="J11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="K11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="L11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="M11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>28767000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>-11429000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="H11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.54</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>11272513000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP13" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0860000000000001</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41470000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DT12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.1137</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DU12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.2802</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18210000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DS12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3463</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DX12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.39760000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DY12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16600000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DV12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.29430000000000001</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.49280000000000002</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.4874</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="DZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.25459999999999999</v>
-        <stp/>
-        <stp>MargemBruta</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="EA12" s="1"/>
-      </tp>
-      <tp>
-        <v>55743000</v>
-        <stp/>
-        <stp>AtivoCirculante</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp>NP</stp>
-        <tr r="AP11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>1.1548</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2221</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ11" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2743</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>1.0806</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.93940000000000001</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83020000000000005</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.94669999999999999</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="BZ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>0.50160000000000005</v>
-        <stp/>
-        <stp>Payout</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BW12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>1.2500000000000001E-2</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.05</v>
-        <stp/>
-        <stp>LiquidezCorrente</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CB12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK11" s="1"/>
-      </tp>
-      <tp>
-        <v>1211935000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE11" s="1"/>
-      </tp>
-      <tp>
-        <v>733000000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>5.8299999999999998E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2284769000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG12" s="1"/>
-      </tp>
-      <tp>
-        <v>2633973000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF12" s="1"/>
-      </tp>
-      <tp>
-        <v>2994121000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE12" s="1"/>
-      </tp>
-      <tp>
-        <v>1385801000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1539616000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1735481000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI12" s="1"/>
-      </tp>
-      <tp>
-        <v>1973838000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH12" s="1"/>
-      </tp>
-      <tp>
-        <v>1085582000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1161740000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1218441000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>48939678000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>2.3099999999999999E-2</v>
-        <stp/>
-        <stp>DividendYield</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp/>
-        <tr r="BK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>43997398000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AH13" s="1"/>
-      </tp>
-      <tp>
-        <v>29923817000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AI13" s="1"/>
-      </tp>
-      <tp>
-        <v>25828845000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>24564842000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AK13" s="1"/>
-      </tp>
-      <tp>
-        <v>46651273000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AE13" s="1"/>
-      </tp>
-      <tp>
-        <v>50333633000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AF13" s="1"/>
-      </tp>
-      <tp>
-        <v>43644669000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AG13" s="1"/>
-      </tp>
-      <tp>
-        <v>17419950000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AN13" s="1"/>
-      </tp>
-      <tp>
-        <v>19243058000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AL13" s="1"/>
-      </tp>
-      <tp>
-        <v>17278138000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AM13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>BCO ABC BRASIL S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>AMBEV S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B13" s="1"/>
-      </tp>
-      <tp>
-        <v>3228438000</v>
-        <stp/>
-        <stp>PatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="AD12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v>CENTRO DE IMAGEM DIAGNOSTICOS S.A.</v>
-        <stp/>
-        <stp>RazaoSocial</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp/>
-        <stp/>
-        <tr r="B11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>7.6571999999999996</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AW17" s="1"/>
-      </tp>
-      <tp>
-        <v>7.9195000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.0868000000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU12" s="1"/>
-      </tp>
-      <tp>
-        <v>3.4396</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W11" s="1"/>
-      </tp>
-      <tp>
-        <v>699664000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R11" s="1"/>
-      </tp>
-      <tp>
-        <v>951470000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.89400000000000002</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.58599999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.48</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.45</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BG13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BF13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BD13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>11199162000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z13" s="1"/>
-      </tp>
-      <tp>
-        <v>20899468000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>19648220000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI13" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>27126719000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X13" s="1"/>
-      </tp>
-      <tp>
-        <v>25233310000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y13" s="1"/>
-      </tp>
-      <tp>
-        <v>34791391000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V13" s="1"/>
-      </tp>
-      <tp>
-        <v>32231027000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>46720141000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T13" s="1"/>
-      </tp>
-      <tp>
-        <v>38079786000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U13" s="1"/>
-      </tp>
-      <tp>
-        <v>46049532000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R13" s="1"/>
-      </tp>
-      <tp>
-        <v>45602561000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>5.3</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2.1496</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0419999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.0402999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.7179</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.3815</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2415</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.2132000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.0407</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO12" s="1"/>
-      </tp>
-      <tp>
-        <v>2.95</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>0.49609999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.77580000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.7702</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>21.21</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF13" s="1"/>
-      </tp>
-      <tp>
-        <v>3.57</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK11" s="1"/>
-      </tp>
-      <tp>
-        <v>15.94</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL11" s="1"/>
-      </tp>
-      <tp>
-        <v>16.78</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>418733000</v>
         <stp/>
@@ -5221,6 +3508,16 @@
         <tr r="AW16" s="1"/>
         <tr r="E12" s="1"/>
       </tp>
+      <tp>
+        <v>14.81</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2014</stp>
+        <stp/>
+        <stp/>
+        <tr r="EI13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
@@ -5230,82 +3527,6 @@
         <stp/>
         <stp/>
         <tr r="EM11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.81</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.8</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.97</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>14.65</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>AALR3</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG11" s="1"/>
-      </tp>
-      <tp>
-        <v>14.59</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABEV3</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>24981000</v>
-        <stp/>
-        <stp>LucroLiquido</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="E11" s="1"/>
       </tp>
       <tp>
         <v>7331968000</v>
@@ -5318,764 +3539,2276 @@
         <tr r="AW21" s="1"/>
         <tr r="E13" s="1"/>
       </tp>
+      <tp>
+        <v>24981000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>16.78</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2015</stp>
+        <stp/>
+        <stp/>
+        <tr r="EH13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH11" s="1"/>
-      </tp>
-      <tp>
-        <v>11.04</v>
+        <stp>31/12/2011</stp>
+        <stp/>
+        <stp/>
+        <tr r="EL11" s="1"/>
+      </tp>
+      <tp>
+        <v>15.94</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABEV3</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL13" s="1"/>
+        <stp>31/12/2016</stp>
+        <stp/>
+        <stp/>
+        <tr r="EG13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2012</stp>
+        <stp/>
+        <stp/>
+        <tr r="EK11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>3.57</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2007</stp>
+        <stp/>
+        <stp/>
+        <tr r="EP13" s="1"/>
+      </tp>
+      <tp>
+        <v>21.21</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2017</stp>
+        <stp/>
+        <stp/>
+        <tr r="EF13" s="1"/>
+      </tp>
       <tp t="s">
         <v/>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>AALR3</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI11" s="1"/>
-      </tp>
-      <tp>
-        <v>8</v>
+        <stp>31/12/2013</stp>
+        <stp/>
+        <stp/>
+        <tr r="EJ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>2.95</v>
         <stp/>
         <stp>FechamentoData</stp>
         <stp>ABEV3</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM13" s="1"/>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2018</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="E21" s="1"/>
+      </tp>
+      <tp>
+        <v>10642555000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K13" s="1"/>
+      </tp>
+      <tp>
+        <v>11354070000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J13" s="1"/>
+      </tp>
+      <tp>
+        <v>7619243000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M13" s="1"/>
+      </tp>
+      <tp>
+        <v>8719764000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L13" s="1"/>
+      </tp>
+      <tp>
+        <v>13083397000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>4833734000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="G22" s="1"/>
+      </tp>
+      <tp>
+        <v>136490000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="F22" s="1"/>
+      </tp>
+      <tp>
+        <v>2124833000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="E22" s="1"/>
+      </tp>
+      <tp>
+        <v>2289831000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>1T_2017</stp>
+        <stp>2</stp>
+        <stp>SP</stp>
+        <tr r="AW22" s="1"/>
+      </tp>
+      <tp>
+        <v>12431547000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>2T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H21" s="1"/>
+      </tp>
+      <tp>
+        <v>9384888000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F13" s="1"/>
+        <tr r="G21" s="1"/>
+      </tp>
+      <tp>
+        <v>7850504000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F21" s="1"/>
+      </tp>
+      <tp>
+        <v>12362019000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>12879141000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ11" s="1"/>
+      </tp>
+      <tp>
+        <v>951470000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U11" s="1"/>
+      </tp>
+      <tp>
+        <v>699664000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="V11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X11" s="1"/>
+      </tp>
+      <tp>
+        <v>5.3</v>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>ABEV3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN13" s="1"/>
+      </tp>
+      <tp>
+        <v>3059478000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O13" s="1"/>
+      </tp>
+      <tp>
+        <v>5959937000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp>
+        <v>2816407000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>1.0124</v>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.18210000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DS12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2802</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DR12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1137</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DU12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41470000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DT12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.29430000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DW12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16600000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DV12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.39760000000000001</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DY12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3463</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DX12" s="1"/>
+      </tp>
+      <tp>
+        <v>55743000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.25459999999999999</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4874</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49280000000000002</v>
+        <stp/>
+        <stp>MargemBruta</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="EB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2008</stp>
+        <stp/>
+        <stp/>
+        <tr r="EO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="K11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="J11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="M11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="L11" s="1"/>
+      </tp>
+      <tp>
+        <v>28767000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="F11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>-11429000</v>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="H11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BH13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BI13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>45602561000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="S13" s="1"/>
+      </tp>
+      <tp>
+        <v>46049532000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="R13" s="1"/>
+      </tp>
+      <tp>
+        <v>38079786000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="U13" s="1"/>
+      </tp>
+      <tp>
+        <v>46720141000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="T13" s="1"/>
+      </tp>
+      <tp>
+        <v>32231027000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="W13" s="1"/>
+      </tp>
+      <tp>
+        <v>34791391000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2013</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BD12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.38069999999999998</v>
+        <tr r="V13" s="1"/>
+      </tp>
+      <tp>
+        <v>25233310000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Y13" s="1"/>
+      </tp>
+      <tp>
+        <v>27126719000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="X13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>FechamentoData</stp>
+        <stp>AALR3</stp>
+        <stp>31/12/2009</stp>
+        <stp/>
+        <stp/>
+        <tr r="EN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="O11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="P11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BD13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2012</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.6</v>
+        <tr r="BE13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2011</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BF12" s="1"/>
+        <tr r="BF13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.45</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.48</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BA13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.58599999999999997</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.89400000000000002</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="BC13" s="1"/>
+      </tp>
+      <tp>
+        <v>19648220000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AB13" s="1"/>
+      </tp>
+      <tp>
+        <v>20899468000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AA13" s="1"/>
+      </tp>
+      <tp>
+        <v>11199162000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="Z13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>7.6571999999999996</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AW17" s="1"/>
+      </tp>
+      <tp>
+        <v>7.9195000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AT12" s="1"/>
+      </tp>
+      <tp>
+        <v>6.0868000000000002</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AU12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>3.4396</v>
+        <stp/>
+        <stp>PrecoLucro</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="AV12" s="1"/>
+      </tp>
+      <tp>
+        <v>11272513000</v>
+        <stp/>
+        <stp>AtivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AP13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>19839347000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>582.62</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>AALR3</stp>
+        <tr r="EC11" s="1"/>
+      </tp>
+      <tp>
+        <v>210782000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>1.1548</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB11" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2221</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA11" s="1"/>
+      </tp>
+      <tp>
+        <v>3284332000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>1.0806</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>106665000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q11" s="1"/>
+      </tp>
+      <tp>
+        <v>21730363000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.94669999999999999</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ13" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2500000000000001E-2</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.05</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>6358195000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>2019.48</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABCB4</stp>
+        <tr r="EC12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24610000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.39860000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.42320000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.55169999999999997</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO12" s="1"/>
+      </tp>
+      <tp>
+        <v>28760537000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.1797</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19889999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1578</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.16389999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1734</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19700000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.17369999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1948</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>24268.33</v>
+        <stp/>
+        <stp>QtdeNegocio21d</stp>
+        <stp>ABEV3</stp>
+        <tr r="EC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.592b16af55374c2181ec97c3b4499668">
+      <tp>
+        <v>0.50160000000000005</v>
+        <stp/>
+        <stp>Payout</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp/>
+        <tr r="BW12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>1.2743</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="BZ12" s="1"/>
+      </tp>
+      <tp>
+        <v>2500739000</v>
+        <stp/>
+        <stp>ReceitaLiquidaOperacional</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="Q12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.3599999999999999E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.93940000000000001</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CB13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83020000000000005</v>
+        <stp/>
+        <stp>LiquidezCorrente</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CA13" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1652999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG12" s="1"/>
+      </tp>
+      <tp>
+        <v>48939678000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD13" s="1"/>
+      </tp>
+      <tp>
+        <v>1218441000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1161740000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1085582000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN12" s="1"/>
+      </tp>
+      <tp>
+        <v>1973838000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1735481000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI12" s="1"/>
+      </tp>
+      <tp>
+        <v>1539616000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1385801000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK12" s="1"/>
+      </tp>
+      <tp>
+        <v>2994121000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE12" s="1"/>
+      </tp>
+      <tp>
+        <v>2633973000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF12" s="1"/>
+      </tp>
+      <tp>
+        <v>2284769000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>46008814000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>19085375000</v>
+        <stp/>
+        <stp>PassivoCirculante</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>3228438000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4667</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG13" s="1"/>
+      </tp>
+      <tp>
+        <v>1230385000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AC11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2117</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="CG11" s="1"/>
+      </tp>
+      <tp>
+        <v>17278138000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM13" s="1"/>
+      </tp>
+      <tp>
+        <v>19243058000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL13" s="1"/>
+      </tp>
+      <tp>
+        <v>17419950000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN13" s="1"/>
+      </tp>
+      <tp>
+        <v>43644669000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG13" s="1"/>
+      </tp>
+      <tp>
+        <v>50333633000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF13" s="1"/>
+      </tp>
+      <tp>
+        <v>46651273000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE13" s="1"/>
+      </tp>
+      <tp>
+        <v>24564842000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK13" s="1"/>
+      </tp>
+      <tp>
+        <v>25828845000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>29923817000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI13" s="1"/>
+      </tp>
+      <tp>
+        <v>43997398000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.14330000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.1464</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.53220000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN13" s="1"/>
+      </tp>
+      <tp>
+        <v>91568737000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.28689999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.20380000000000001</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.3246</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.2757</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.33019999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32629999999999998</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.30199999999999999</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.32140000000000002</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AD11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="CC12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DP11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DN11" s="1"/>
+      </tp>
+      <tp>
+        <v>1788230000</v>
+        <stp/>
+        <stp>AtivoTotal</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AO11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>3.0200000000000001E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DG11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DF11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DI11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1.6299999999999999E-2</v>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DH11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>MargemLiquida</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="DL11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v>Serv.Méd.Hospit..Análises e Diagnósticos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D11" s="1"/>
+      </tp>
+      <tp>
+        <v>25720576000</v>
+        <stp/>
+        <stp>PassivoExigivelLp</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp>NP</stp>
+        <tr r="AQ13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Cervejas e Refrigerantes</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D13" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>Bancos</v>
+        <stp/>
+        <stp>Segmento</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp/>
+        <stp/>
+        <tr r="D12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AM11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AG11" s="1"/>
+      </tp>
+      <tp>
+        <v>733000000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AF11" s="1"/>
+      </tp>
+      <tp>
+        <v>1211935000</v>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AE11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AI11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>PatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="AH11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>1.0860000000000001</v>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividendoPagoAcao</stp>
+        <stp>AALR3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY11" s="1"/>
       </tp>
       <tp>
         <v>0.54</v>
         <stp/>
         <stp>DividendoPagoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp/>
+        <stp>1</stp>
+        <stp>NP</stp>
+        <tr r="AY13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.7702</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.77580000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP12" s="1"/>
+      </tp>
+      <tp>
+        <v>0.49609999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>2.0419999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.1496</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.7179</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK12" s="1"/>
+      </tp>
+      <tp>
+        <v>2.0402999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2415</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.3815</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.0407</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
         <stp>ABCB4</stp>
         <stp>4T_2010</stp>
         <stp>1</stp>
         <stp>SP</stp>
-        <tr r="BG12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.093</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AZ12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.087</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BA12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.86499999999999999</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BB12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72509999999999997</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BC12" s="1"/>
-      </tp>
-      <tp>
-        <v>272023000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AA12" s="1"/>
-      </tp>
-      <tp>
-        <v>357184000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Z12" s="1"/>
-      </tp>
-      <tp>
-        <v>244622000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AB12" s="1"/>
+        <tr r="CO12" s="1"/>
+      </tp>
+      <tp>
+        <v>1.2132000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV11" s="1"/>
-      </tp>
-      <tp>
-        <v>60.070500000000003</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.16739999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.32</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BJ12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.51</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BH12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.5</v>
-        <stp/>
-        <stp>DividendoPagoAcao</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="BI12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2010847000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="S12" s="1"/>
-      </tp>
-      <tp>
-        <v>2398094000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="R12" s="1"/>
-      </tp>
-      <tp>
-        <v>1666916000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="U12" s="1"/>
-      </tp>
-      <tp>
-        <v>2240732000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="T12" s="1"/>
-      </tp>
-      <tp>
-        <v>1470226000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="W12" s="1"/>
-      </tp>
-      <tp>
-        <v>1682149000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="V12" s="1"/>
-      </tp>
-      <tp>
-        <v>1019601000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="Y12" s="1"/>
-      </tp>
-      <tp>
-        <v>1310997000</v>
-        <stp/>
-        <stp>ReceitaLiquidaOperacional</stp>
-        <stp>ABCB4</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="X12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>16.29</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>AALR3</stp>
-        <tr r="EE11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>6.86</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2009</stp>
-        <stp/>
-        <stp/>
-        <tr r="EN12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.4849</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.55489999999999995</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.67720000000000002</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.72240000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.78649999999999998</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.82110000000000005</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.83330000000000004</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.59750000000000003</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>2.79</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2008</stp>
-        <stp/>
-        <stp/>
-        <tr r="EO12" s="1"/>
-      </tp>
-      <tp>
-        <v>0.63500000000000001</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.41720000000000002</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.18179999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.19489999999999999</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.3795</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>20.4329</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AV13" s="1"/>
-      </tp>
-      <tp>
-        <v>19.127300000000002</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AU13" s="1"/>
-      </tp>
-      <tp>
-        <v>34.666899999999998</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="AT13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2010</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CO11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2011</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CN11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2012</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CM11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2013</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CL11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2014</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CK11" s="1"/>
-      </tp>
-      <tp>
-        <v>-9.6699999999999994E-2</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2015</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CJ11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.24390000000000001</v>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2016</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CI11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>3T_2017</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CH11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2007</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CR11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2008</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CQ11" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>LucroLiquidoAcao</stp>
-        <stp>AALR3</stp>
-        <stp>4T_2009</stp>
-        <stp>1</stp>
-        <stp>SP</stp>
-        <tr r="CP11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.23419999999999999</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE11" s="1"/>
-      </tp>
-      <tp>
-        <v>0.33739999999999998</v>
-        <stp/>
-        <stp>MargemLiquida</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="DE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>8.9600000000000009</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2013</stp>
-        <stp/>
-        <stp/>
-        <tr r="EJ12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>23.35</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABEV3</stp>
-        <tr r="EE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>9.4700000000000006</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2012</stp>
-        <stp/>
-        <stp/>
-        <tr r="EK12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>7.93</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2011</stp>
-        <stp/>
-        <stp/>
-        <tr r="EL12" s="1"/>
-      </tp>
-      <tp>
-        <v>7.1499999999999994E-2</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2015</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CF13" s="1"/>
-      </tp>
-      <tp>
-        <v>0.1157</v>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABEV3</stp>
-        <stp>4T_2016</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CE13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>50.139299999999999</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABEV3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS13" s="1"/>
-      </tp>
-      <tp>
-        <v>77.006699999999995</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>AALR3</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>8.84</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2010</stp>
-        <stp/>
-        <stp/>
-        <tr r="EM12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
-        <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD12" s="1"/>
-      </tp>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>0.25580000000000003</v>
         <stp/>
@@ -6087,47 +5820,53 @@
         <tr r="DQ12" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>16.579999999999998</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2017</stp>
-        <stp/>
-        <stp/>
-        <tr r="EF12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.07</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2007</stp>
-        <stp/>
-        <stp/>
-        <tr r="EP12" s="1"/>
-      </tp>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp t="s">
         <v/>
         <stp/>
         <stp>DividaTotalBrutaPatrimonioLiquido</stp>
         <stp>ABCB4</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.1157</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2016</stp>
         <stp/>
         <stp>SP</stp>
-        <tr r="CE12" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
+        <tr r="CE13" s="1"/>
+      </tp>
+      <tp>
+        <v>7.1499999999999994E-2</v>
         <stp/>
         <stp>DividaTotalBrutaPatrimonioLiquido</stp>
-        <stp>ABCB4</stp>
+        <stp>ABEV3</stp>
         <stp>4T_2015</stp>
         <stp/>
         <stp>SP</stp>
-        <tr r="CF12" s="1"/>
-      </tp>
+        <tr r="CF13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>6.8000000000000005E-2</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABEV3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
       <tp>
         <v>0.47149999999999997</v>
         <stp/>
@@ -6149,71 +5888,286 @@
         <tr r="DQ11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>12.43</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2016</stp>
-        <stp/>
-        <stp/>
-        <tr r="EG12" s="1"/>
-      </tp>
-      <tp>
-        <v>6.8000000000000005E-2</v>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
         <stp/>
         <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF12" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>ABCB4</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE12" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.3795</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.19489999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.18179999999999999</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.41720000000000002</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CE11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.63500000000000001</v>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CF11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp>
+        <v>0.55489999999999995</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.4849</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.72240000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.67720000000000002</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.82110000000000005</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.78649999999999998</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.59750000000000003</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
         <stp>ABEV3</stp>
         <stp>3T_2017</stp>
-        <stp/>
-        <stp>SP</stp>
-        <tr r="CD13" s="1"/>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH13" s="1"/>
+      </tp>
+      <tp>
+        <v>0.83330000000000004</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>ABEV3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI13" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.d79a29ae2146429f85c53bc93b6988d1">
-      <tp>
-        <v>8.5993999999999993</v>
-        <stp/>
-        <stp>PrecoLucro</stp>
-        <stp>ABCB4</stp>
-        <stp/>
-        <stp>1</stp>
-        <stp>NP</stp>
-        <tr r="AS12" s="1"/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2009</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CP11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2008</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CQ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2007</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CR11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>7.02</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2015</stp>
-        <stp/>
-        <stp/>
-        <tr r="EH12" s="1"/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2011</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CN11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2010</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CO11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2013</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CL11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2012</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CM11" s="1"/>
+      </tp>
+      <tp>
+        <v>-9.6699999999999994E-2</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2015</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CJ11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2014</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CK11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CH11" s="1"/>
+      </tp>
+      <tp>
+        <v>0.24390000000000001</v>
+        <stp/>
+        <stp>LucroLiquidoAcao</stp>
+        <stp>AALR3</stp>
+        <stp>4T_2016</stp>
+        <stp>1</stp>
+        <stp>SP</stp>
+        <tr r="CI11" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.c657174a63264b8d847ed6bf76f64def">
-      <tp>
-        <v>18.600000000000001</v>
-        <stp/>
-        <stp>PrecoUltimo</stp>
-        <stp>ABCB4</stp>
-        <tr r="EE12" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.08ee5443457e4996b2f222f4c6972653">
-      <tp>
-        <v>10.16</v>
-        <stp/>
-        <stp>FechamentoData</stp>
-        <stp>ABCB4</stp>
-        <stp>31/12/2014</stp>
-        <stp/>
-        <stp/>
-        <tr r="EI12" s="1"/>
+    <main first="rtdsrv.c77ea9bccf5a4af48934ca926fe3c318">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>DividaTotalBrutaPatrimonioLiquido</stp>
+        <stp>AALR3</stp>
+        <stp>3T_2017</stp>
+        <stp/>
+        <stp>SP</stp>
+        <tr r="CD11" s="1"/>
       </tp>
     </main>
   </volType>
@@ -6542,7 +6496,7 @@
       </c>
       <c r="B4" s="1">
         <f ca="1">NOW()</f>
-        <v>43168.434220023148</v>
+        <v>43171.464579861109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6782,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6794,20 +6748,21 @@
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>473</v>
       </c>
@@ -6829,8 +6784,11 @@
       <c r="G4" s="35" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="35" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Critérios!$A5</f>
         <v>AALR3</v>
@@ -6856,11 +6814,15 @@
         <v>-1</v>
       </c>
       <c r="G5">
+        <f ca="1">Critérios!K5</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
         <f ca="1">Critérios!J5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Critérios!$A6</f>
         <v>ABCB4</v>
@@ -6886,11 +6848,15 @@
         <v>9.0344563781266984</v>
       </c>
       <c r="G6">
+        <f ca="1">Critérios!K6</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
         <f ca="1">Critérios!J6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Critérios!$A7</f>
         <v>ABEV3</v>
@@ -6916,11 +6882,15 @@
         <v>7.8261130446289018</v>
       </c>
       <c r="G7">
+        <f ca="1">Critérios!K7</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
         <f ca="1">Critérios!J7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" t="b">
         <f>FALSE</f>
         <v>0</v>
@@ -6932,6 +6902,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B7">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
     <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -6939,45 +6917,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+  <conditionalFormatting sqref="D5:D7">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G7">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6986,7 +6966,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{D8C04E2C-1009-4BDE-B56D-BFAF7AF9C426}">
+          <x14:cfRule type="expression" priority="8" id="{D8C04E2C-1009-4BDE-B56D-BFAF7AF9C426}">
             <xm:f>Critérios!I5 = 2</xm:f>
             <x14:dxf>
               <fill>
@@ -6999,7 +6979,7 @@
           <xm:sqref>F5:F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{25EF5E5C-033C-4AF8-8541-A782609880C5}">
+          <x14:cfRule type="expression" priority="7" id="{25EF5E5C-033C-4AF8-8541-A782609880C5}">
             <xm:f>Critérios!I5 = 1</xm:f>
             <x14:dxf>
               <fill>
@@ -7012,7 +6992,7 @@
           <xm:sqref>F5:F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{56CDE4C5-0493-44AC-BA0A-ACF10060D021}">
+          <x14:cfRule type="expression" priority="6" id="{56CDE4C5-0493-44AC-BA0A-ACF10060D021}">
             <xm:f>Critérios!I5 = -1</xm:f>
             <x14:dxf>
               <fill>
@@ -7864,7 +7844,7 @@
       </c>
       <c r="AS11" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A11) / 1,-1)</f>
-        <v>77.006699999999995</v>
+        <v>77.431899999999999</v>
       </c>
       <c r="AT11" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A11,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -7880,11 +7860,11 @@
       </c>
       <c r="AW11" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A11) / 1000) / (( F11 + G11 + H11) / 3),-1)</f>
-        <v>332.87758459941165</v>
+        <v>334.71555899290536</v>
       </c>
       <c r="AX11" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A11) / 1, -1)</f>
-        <v>1.5634999999999999</v>
+        <v>1.5721000000000001</v>
       </c>
       <c r="AY11" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A11) / 1, -1)</f>
@@ -7988,7 +7968,7 @@
       </c>
       <c r="BX11" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A11) / 1000,-1)</f>
-        <v>1923699.5614</v>
+        <v>1934321.21542</v>
       </c>
       <c r="BY11" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A11) / 1, -1)</f>
@@ -8216,7 +8196,7 @@
       </c>
       <c r="EC11" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A11) / 1, -1)</f>
-        <v>612.04999999999995</v>
+        <v>582.62</v>
       </c>
       <c r="ED11" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A11)) / 1, -1)</f>
@@ -8224,7 +8204,7 @@
       </c>
       <c r="EE11" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A11) / 1, -1)</f>
-        <v>16.29</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="EF11" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A11, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -8449,7 +8429,7 @@
       </c>
       <c r="AS12" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A12) / 1,-1)</f>
-        <v>8.5993999999999993</v>
+        <v>8.9550000000000001</v>
       </c>
       <c r="AT12" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A12,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -8465,11 +8445,11 @@
       </c>
       <c r="AW12" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A12) / 1000) / (( F12 + G12 + H12) / 3),-1)</f>
-        <v>9.0252235303268549</v>
+        <v>9.3984470597764602</v>
       </c>
       <c r="AX12" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A12) / 1, -1)</f>
-        <v>1.0964</v>
+        <v>1.1416999999999999</v>
       </c>
       <c r="AY12" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A12) / 1, -1)</f>
@@ -8521,7 +8501,7 @@
       </c>
       <c r="BK12" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A12) / 1, -1)</f>
-        <v>5.8299999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="BL12" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A12,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -8573,7 +8553,7 @@
       </c>
       <c r="BX12" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A12) / 1000,-1)</f>
-        <v>3600841.56642</v>
+        <v>3749748.54849</v>
       </c>
       <c r="BY12" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A12) / 1, -1)</f>
@@ -8801,7 +8781,7 @@
       </c>
       <c r="EC12" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A12) / 1, -1)</f>
-        <v>2058.62</v>
+        <v>2019.48</v>
       </c>
       <c r="ED12" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A12)) / 1, -1)</f>
@@ -8809,7 +8789,7 @@
       </c>
       <c r="EE12" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A12) / 1, -1)</f>
-        <v>18.600000000000001</v>
+        <v>19.38</v>
       </c>
       <c r="EF12" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A12, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9034,7 +9014,7 @@
       </c>
       <c r="AS13" s="16">
         <f>IFERROR(_xll.GI.PrecoLucro(A13) / 1,-1)</f>
-        <v>50.139299999999999</v>
+        <v>50.846400000000003</v>
       </c>
       <c r="AT13" s="16">
         <f ca="1">IFERROR(_xll.GI.PrecoLucro(A13,Parâmetros!$D$11,$AT$10,"12m","cp") / 1,-1)</f>
@@ -9050,11 +9030,11 @@
       </c>
       <c r="AW13" s="16">
         <f ca="1">IFERROR((_xll.GI.ValorMercado(A13) / 1000) / (( F13 + G13 + H13) / 3),-1)</f>
-        <v>31.200505055553403</v>
+        <v>31.640512178131726</v>
       </c>
       <c r="AX13" s="16">
         <f>IFERROR(_xll.GI.PrecoValorPatr(A13) / 1, -1)</f>
-        <v>7.9901999999999997</v>
+        <v>8.1029</v>
       </c>
       <c r="AY13" s="16">
         <f>IFERROR(_xll.GI.DividendoPgAcao(A13) / 1, -1)</f>
@@ -9106,7 +9086,7 @@
       </c>
       <c r="BK13" s="16">
         <f>IFERROR(_xll.GI.DividendYield(A13) / 1, -1)</f>
-        <v>2.3099999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="BL13" s="16">
         <f ca="1">IFERROR(_xll.GI.DividendYield(A13,Parâmetros!$D$11,$BL$10,"12m") / 1, -1)</f>
@@ -9158,7 +9138,7 @@
       </c>
       <c r="BX13" s="16">
         <f>IFERROR(_xll.GI.ValorMercado(A13) / 1000,-1)</f>
-        <v>367619181.20459998</v>
+        <v>372803554.27287</v>
       </c>
       <c r="BY13" s="16">
         <f>IFERROR(_xll.GI.LiquidezCorrente(A13) / 1, -1)</f>
@@ -9386,7 +9366,7 @@
       </c>
       <c r="EC13" s="31">
         <f>IFERROR(_xll.GI.QtdeNeg21d(A13) / 1, -1)</f>
-        <v>24952.48</v>
+        <v>24268.33</v>
       </c>
       <c r="ED13" s="32">
         <f ca="1">IFERROR(TRUNC(NOW() - _xll.GI.UltimoNegocio(A13)) / 1, -1)</f>
@@ -9394,7 +9374,7 @@
       </c>
       <c r="EE13" s="28">
         <f>IFERROR(_xll.GI.PrecoUltimo(A13) / 1, -1)</f>
-        <v>23.35</v>
+        <v>23.73</v>
       </c>
       <c r="EF13" s="31">
         <f ca="1">IFERROR(_xll.GI.FechamentoData(A13, CONCATENATE("31/12/",$EF$10)) / 1,-1)</f>
@@ -9460,7 +9440,7 @@
       </c>
       <c r="AW16">
         <f>_xll.GI.ValorMercado(A12) / _xll.GI.LucroLiquido(A12)</f>
-        <v>8.5993737451311461</v>
+        <v>8.9549869451177706</v>
       </c>
       <c r="DR16" s="6"/>
       <c r="DS16" s="7"/>
@@ -9481,7 +9461,7 @@
       </c>
       <c r="AW18">
         <f ca="1">(_xll.GI.ValorMercado(A12) / 1000) / ((E12 + G12 + H12) / 3)</f>
-        <v>9.0095668405829485</v>
+        <v>9.3821429129378835</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9559,23 +9539,23 @@
       </c>
       <c r="E24" s="6">
         <f ca="1">EDATE(AW24,2)</f>
-        <v>43229</v>
+        <v>43232</v>
       </c>
       <c r="F24" s="6">
         <f ca="1">EDATE(AW24,-3)</f>
-        <v>43078</v>
+        <v>43081</v>
       </c>
       <c r="G24" s="6">
         <f ca="1">DATE(YEAR(AW24)+2,MONTH(AW24),DAY(AW24))</f>
-        <v>43899</v>
+        <v>43902</v>
       </c>
       <c r="H24" s="6">
         <f ca="1">DATE(YEAR(AW24)-3,MONTH(AW24),DAY(AW24))</f>
-        <v>42072</v>
+        <v>42075</v>
       </c>
       <c r="AW24" s="6">
         <f ca="1">NOW()</f>
-        <v>43168.434220023148</v>
+        <v>43171.46457974537</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11584,10 +11564,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11597,20 +11577,20 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11639,10 +11619,13 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>503</v>
+      </c>
+      <c r="K4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Dados!A11</f>
         <v>AALR3</v>
@@ -11680,11 +11663,15 @@
         <v>-1</v>
       </c>
       <c r="J5">
+        <f ca="1">IF(D5, IF(H5 &lt;= Parâmetros!$E$18, 1, -1), IF(E5, IF(H5 &lt;= Parâmetros!$G$18, 1, -1), -1))</f>
+        <v>-1</v>
+      </c>
+      <c r="K5">
         <f ca="1">IF(Dados!F11 &gt;= Dados!G11, 1, IF(Dados!G11 &gt;= Dados!H11, 1, IF(Dados!H11 &gt;= Dados!I11, -1, -2)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Dados!A12</f>
         <v>ABCB4</v>
@@ -11722,11 +11709,15 @@
         <v>2</v>
       </c>
       <c r="J6">
+        <f ca="1">IF(D6, IF(H6 &lt;= Parâmetros!$E$18, 1, -1), IF(E6, IF(H6 &lt;= Parâmetros!$G$18, 1, -1), -1))</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
         <f ca="1">IF(Dados!F12 &gt;= Dados!G12, 1, IF(Dados!G12 &gt;= Dados!H12, 1, IF(Dados!H12 &gt;= Dados!I12, -1, -2)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Dados!A13</f>
         <v>ABEV3</v>
@@ -11764,41 +11755,46 @@
         <v>2</v>
       </c>
       <c r="J7">
+        <f ca="1">IF(D7, IF(H7 &lt;= Parâmetros!$E$18, 1, -1), IF(E7, IF(H7 &lt;= Parâmetros!$G$18, 1, -1), -1))</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
         <f ca="1">IF(Dados!F13 &gt;= Dados!G13, 1, IF(Dados!G13 &gt;= Dados!H13, 1, IF(Dados!H13 &gt;= Dados!I13, -1, -2)))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:B8">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E17">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C7">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
